--- a/Documents/Balance Circuit placement.xlsx
+++ b/Documents/Balance Circuit placement.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juppy\Documents\GitHub\HV_BMS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Will\Documents\GitHub\HV_BMS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682A570C-E0A1-401B-AF5B-D6E9E7E9F3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D20740-6310-4FB7-990A-3644BDC2A393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{28CC7CEF-CD1D-4D1E-8837-1C6BE0070208}"/>
+    <workbookView xWindow="22815" yWindow="2700" windowWidth="14325" windowHeight="11385" activeTab="3" xr2:uid="{28CC7CEF-CD1D-4D1E-8837-1C6BE0070208}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Balance Circuit" sheetId="2" r:id="rId2"/>
     <sheet name="AFE" sheetId="4" r:id="rId3"/>
+    <sheet name="AFEV2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="221">
   <si>
     <t>Dy</t>
   </si>
@@ -696,6 +697,9 @@
   </si>
   <si>
     <t>R22_AFE28</t>
+  </si>
+  <si>
+    <t>Dy1</t>
   </si>
 </sst>
 </file>
@@ -1142,12 +1146,12 @@
       <selection activeCell="D1" sqref="D1:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1241,7 +1245,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>34.774999999999999</v>
       </c>
@@ -1282,7 +1286,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>41.274999999999999</v>
       </c>
@@ -1323,7 +1327,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>41.274999999999999</v>
       </c>
@@ -1364,7 +1368,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>38.424999999999997</v>
       </c>
@@ -1405,7 +1409,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>33.786999999999999</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>46.024999999999999</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>20</v>
       </c>
@@ -1528,7 +1532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11">
         <f>D2+$B$2</f>
         <v>28.463000000000001</v>
@@ -1544,7 +1548,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12">
         <f t="shared" ref="D12:D17" si="0">D3+$B$2</f>
         <v>34.774999999999999</v>
@@ -1560,7 +1564,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D13">
         <f t="shared" si="0"/>
         <v>41.274999999999999</v>
@@ -1576,7 +1580,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14">
         <f t="shared" si="0"/>
         <v>41.274999999999999</v>
@@ -1592,7 +1596,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D15">
         <f t="shared" si="0"/>
         <v>38.424999999999997</v>
@@ -1608,7 +1612,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D16">
         <f t="shared" si="0"/>
         <v>33.786999999999999</v>
@@ -1624,7 +1628,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D17">
         <f t="shared" si="0"/>
         <v>46.024999999999999</v>
@@ -1653,15 +1657,15 @@
       <selection activeCell="O2" sqref="O2:AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="2.90625" customWidth="1"/>
-    <col min="4" max="4" width="1.90625" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="1.54296875" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="1.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1705,7 +1709,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f t="array" ref="A2:A15">O3</f>
         <v>28.463000000000001</v>
@@ -1771,7 +1775,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>28.463000000000001</v>
       </c>
@@ -1836,7 +1840,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>28.463000000000001</v>
       </c>
@@ -1901,7 +1905,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>28.463000000000001</v>
       </c>
@@ -1966,7 +1970,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>28.463000000000001</v>
       </c>
@@ -2031,7 +2035,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>28.463000000000001</v>
       </c>
@@ -2096,7 +2100,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>28.463000000000001</v>
       </c>
@@ -2161,7 +2165,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>28.463000000000001</v>
       </c>
@@ -2226,7 +2230,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>28.463000000000001</v>
       </c>
@@ -2252,7 +2256,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>28.463000000000001</v>
       </c>
@@ -2281,7 +2285,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>28.463000000000001</v>
       </c>
@@ -2346,7 +2350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>28.463000000000001</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>28.463000000000001</v>
       </c>
@@ -2476,7 +2480,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>28.463000000000001</v>
       </c>
@@ -2541,7 +2545,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="array" ref="A16:A29">O4</f>
         <v>34.774999999999999</v>
@@ -2607,7 +2611,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>34.774999999999999</v>
       </c>
@@ -2672,7 +2676,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>34.774999999999999</v>
       </c>
@@ -2737,7 +2741,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>34.774999999999999</v>
       </c>
@@ -2802,7 +2806,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>34.774999999999999</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>34.774999999999999</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>34.774999999999999</v>
       </c>
@@ -2886,7 +2890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>34.774999999999999</v>
       </c>
@@ -2918,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>34.774999999999999</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>34.774999999999999</v>
       </c>
@@ -2970,7 +2974,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>34.774999999999999</v>
       </c>
@@ -2996,7 +3000,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>34.774999999999999</v>
       </c>
@@ -3022,7 +3026,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>34.774999999999999</v>
       </c>
@@ -3048,7 +3052,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>34.774999999999999</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="array" ref="A30:A43">O5</f>
         <v>41.274999999999999</v>
@@ -3101,7 +3105,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3127,7 +3131,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3179,7 +3183,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3205,7 +3209,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3231,7 +3235,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3257,7 +3261,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3283,7 +3287,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3335,7 +3339,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3361,7 +3365,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3387,7 +3391,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3413,7 +3417,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>41.274999999999999</v>
       </c>
@@ -3439,7 +3443,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="array" ref="A44:A57">O6</f>
         <v>41.274999999999999</v>
@@ -3466,7 +3470,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3492,7 +3496,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3518,7 +3522,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3544,7 +3548,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3570,7 +3574,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3596,7 +3600,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3622,7 +3626,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3648,7 +3652,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3674,7 +3678,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3700,7 +3704,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3726,7 +3730,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3752,7 +3756,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>41.274999999999999</v>
       </c>
@@ -3778,7 +3782,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>41.274999999999999</v>
       </c>
@@ -3804,7 +3808,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="array" ref="A58:A71">O7</f>
         <v>38.424999999999997</v>
@@ -3831,7 +3835,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>38.424999999999997</v>
       </c>
@@ -3857,7 +3861,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>38.424999999999997</v>
       </c>
@@ -3883,7 +3887,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>38.424999999999997</v>
       </c>
@@ -3909,7 +3913,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>38.424999999999997</v>
       </c>
@@ -3935,7 +3939,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>38.424999999999997</v>
       </c>
@@ -3961,7 +3965,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>38.424999999999997</v>
       </c>
@@ -3987,7 +3991,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>38.424999999999997</v>
       </c>
@@ -4013,7 +4017,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>38.424999999999997</v>
       </c>
@@ -4039,7 +4043,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>38.424999999999997</v>
       </c>
@@ -4065,7 +4069,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>38.424999999999997</v>
       </c>
@@ -4091,7 +4095,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>38.424999999999997</v>
       </c>
@@ -4117,7 +4121,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>38.424999999999997</v>
       </c>
@@ -4143,7 +4147,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>38.424999999999997</v>
       </c>
@@ -4169,7 +4173,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f t="array" ref="A72:A85">O8</f>
         <v>33.786999999999999</v>
@@ -4196,7 +4200,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>33.786999999999999</v>
       </c>
@@ -4222,7 +4226,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>33.786999999999999</v>
       </c>
@@ -4248,7 +4252,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>33.786999999999999</v>
       </c>
@@ -4274,7 +4278,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>33.786999999999999</v>
       </c>
@@ -4300,7 +4304,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>33.786999999999999</v>
       </c>
@@ -4326,7 +4330,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>33.786999999999999</v>
       </c>
@@ -4352,7 +4356,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>33.786999999999999</v>
       </c>
@@ -4378,7 +4382,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>33.786999999999999</v>
       </c>
@@ -4404,7 +4408,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>33.786999999999999</v>
       </c>
@@ -4430,7 +4434,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>33.786999999999999</v>
       </c>
@@ -4456,7 +4460,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>33.786999999999999</v>
       </c>
@@ -4482,7 +4486,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>33.786999999999999</v>
       </c>
@@ -4508,7 +4512,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>33.786999999999999</v>
       </c>
@@ -4534,7 +4538,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f t="array" ref="A86:A99">O9</f>
         <v>46.024999999999999</v>
@@ -4561,7 +4565,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>46.024999999999999</v>
       </c>
@@ -4587,7 +4591,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>46.024999999999999</v>
       </c>
@@ -4613,7 +4617,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>46.024999999999999</v>
       </c>
@@ -4639,7 +4643,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>46.024999999999999</v>
       </c>
@@ -4665,7 +4669,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>46.024999999999999</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>46.024999999999999</v>
       </c>
@@ -4717,7 +4721,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>46.024999999999999</v>
       </c>
@@ -4743,7 +4747,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>46.024999999999999</v>
       </c>
@@ -4769,7 +4773,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>46.024999999999999</v>
       </c>
@@ -4795,7 +4799,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>46.024999999999999</v>
       </c>
@@ -4821,7 +4825,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>46.024999999999999</v>
       </c>
@@ -4847,7 +4851,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>46.024999999999999</v>
       </c>
@@ -4873,7 +4877,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>46.024999999999999</v>
       </c>
@@ -4908,20 +4912,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC9D715-BBD5-4F37-B459-ABEE448B2E22}">
   <dimension ref="A1:AA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="2.90625" customWidth="1"/>
-    <col min="4" max="4" width="1.90625" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="1.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="1.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -5001,7 +5005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>O2</f>
         <v>14.375</v>
@@ -5059,13 +5063,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+$P$7</f>
+        <f t="shared" ref="A3:A29" si="0">A2+$P$7</f>
         <v>14.375</v>
       </c>
       <c r="B3">
-        <f>B2+$P$8</f>
+        <f t="shared" ref="B3:B29" si="1">B2+$P$8</f>
         <v>170.07499999999999</v>
       </c>
       <c r="E3" t="s">
@@ -5117,13 +5121,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>A3+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B4">
-        <f>B3+$P$8</f>
+        <f t="shared" si="1"/>
         <v>166.82499999999999</v>
       </c>
       <c r="E4" t="s">
@@ -5175,13 +5179,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>A4+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B5">
-        <f>B4+$P$8</f>
+        <f t="shared" si="1"/>
         <v>163.57499999999999</v>
       </c>
       <c r="E5" t="s">
@@ -5194,13 +5198,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B6">
-        <f>B5+$P$8</f>
+        <f t="shared" si="1"/>
         <v>160.32499999999999</v>
       </c>
       <c r="E6" t="s">
@@ -5213,13 +5217,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B7">
-        <f>B6+$P$8</f>
+        <f t="shared" si="1"/>
         <v>157.07499999999999</v>
       </c>
       <c r="E7" t="s">
@@ -5238,13 +5242,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B8">
-        <f>B7+$P$8</f>
+        <f t="shared" si="1"/>
         <v>153.82499999999999</v>
       </c>
       <c r="E8" t="s">
@@ -5263,13 +5267,13 @@
         <v>-3.25</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B9">
-        <f>B8+$P$8</f>
+        <f t="shared" si="1"/>
         <v>150.57499999999999</v>
       </c>
       <c r="E9" t="s">
@@ -5282,13 +5286,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B10">
-        <f>B9+$P$8</f>
+        <f t="shared" si="1"/>
         <v>147.32499999999999</v>
       </c>
       <c r="E10" t="s">
@@ -5301,13 +5305,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>A10+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B11">
-        <f>B10+$P$8</f>
+        <f t="shared" si="1"/>
         <v>144.07499999999999</v>
       </c>
       <c r="E11" t="s">
@@ -5320,13 +5324,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>A11+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B12">
-        <f>B11+$P$8</f>
+        <f t="shared" si="1"/>
         <v>140.82499999999999</v>
       </c>
       <c r="E12" t="s">
@@ -5339,13 +5343,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>A12+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B13">
-        <f>B12+$P$8</f>
+        <f t="shared" si="1"/>
         <v>137.57499999999999</v>
       </c>
       <c r="E13" t="s">
@@ -5358,13 +5362,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>A13+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B14">
-        <f>B13+$P$8</f>
+        <f t="shared" si="1"/>
         <v>134.32499999999999</v>
       </c>
       <c r="E14" t="s">
@@ -5377,13 +5381,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>A14+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B15">
-        <f>B14+$P$8</f>
+        <f t="shared" si="1"/>
         <v>131.07499999999999</v>
       </c>
       <c r="E15" t="s">
@@ -5396,13 +5400,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>A15+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B16">
-        <f>B15+$P$8</f>
+        <f t="shared" si="1"/>
         <v>127.82499999999999</v>
       </c>
       <c r="E16" t="s">
@@ -5415,13 +5419,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>A16+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B17">
-        <f>B16+$P$8</f>
+        <f t="shared" si="1"/>
         <v>124.57499999999999</v>
       </c>
       <c r="E17" t="s">
@@ -5434,13 +5438,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>A17+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B18">
-        <f>B17+$P$8</f>
+        <f t="shared" si="1"/>
         <v>121.32499999999999</v>
       </c>
       <c r="E18" t="s">
@@ -5453,13 +5457,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>A18+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B19">
-        <f>B18+$P$8</f>
+        <f t="shared" si="1"/>
         <v>118.07499999999999</v>
       </c>
       <c r="E19" t="s">
@@ -5472,13 +5476,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>A19+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B20">
-        <f>B19+$P$8</f>
+        <f t="shared" si="1"/>
         <v>114.82499999999999</v>
       </c>
       <c r="E20" t="s">
@@ -5491,13 +5495,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>A20+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B21">
-        <f>B20+$P$8</f>
+        <f t="shared" si="1"/>
         <v>111.57499999999999</v>
       </c>
       <c r="E21" t="s">
@@ -5510,13 +5514,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>A21+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B22">
-        <f>B21+$P$8</f>
+        <f t="shared" si="1"/>
         <v>108.32499999999999</v>
       </c>
       <c r="E22" t="s">
@@ -5529,13 +5533,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>A22+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B23">
-        <f>B22+$P$8</f>
+        <f t="shared" si="1"/>
         <v>105.07499999999999</v>
       </c>
       <c r="E23" t="s">
@@ -5548,13 +5552,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>A23+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B24">
-        <f>B23+$P$8</f>
+        <f t="shared" si="1"/>
         <v>101.82499999999999</v>
       </c>
       <c r="E24" t="s">
@@ -5567,13 +5571,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>A24+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B25">
-        <f>B24+$P$8</f>
+        <f t="shared" si="1"/>
         <v>98.574999999999989</v>
       </c>
       <c r="E25" t="s">
@@ -5586,13 +5590,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>A25+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B26">
-        <f>B25+$P$8</f>
+        <f t="shared" si="1"/>
         <v>95.324999999999989</v>
       </c>
       <c r="E26" t="s">
@@ -5605,13 +5609,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>A26+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B27">
-        <f>B26+$P$8</f>
+        <f t="shared" si="1"/>
         <v>92.074999999999989</v>
       </c>
       <c r="E27" t="s">
@@ -5624,13 +5628,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>A27+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B28">
-        <f>B27+$P$8</f>
+        <f t="shared" si="1"/>
         <v>88.824999999999989</v>
       </c>
       <c r="E28" t="s">
@@ -5643,13 +5647,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>A28+$P$7</f>
+        <f t="shared" si="0"/>
         <v>14.375</v>
       </c>
       <c r="B29">
-        <f>B28+$P$8</f>
+        <f t="shared" si="1"/>
         <v>85.574999999999989</v>
       </c>
       <c r="E29" t="s">
@@ -5662,7 +5666,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>O3</f>
         <v>11.4</v>
@@ -5681,13 +5685,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>A30+$P$7</f>
+        <f t="shared" ref="A31:A57" si="2">A30+$P$7</f>
         <v>11.4</v>
       </c>
       <c r="B31">
-        <f>B30+$P$8</f>
+        <f t="shared" ref="B31:B57" si="3">B30+$P$8</f>
         <v>170.07499999999999</v>
       </c>
       <c r="E31" t="s">
@@ -5700,13 +5704,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>A31+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B32">
-        <f>B31+$P$8</f>
+        <f t="shared" si="3"/>
         <v>166.82499999999999</v>
       </c>
       <c r="E32" t="s">
@@ -5719,13 +5723,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>A32+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B33">
-        <f>B32+$P$8</f>
+        <f t="shared" si="3"/>
         <v>163.57499999999999</v>
       </c>
       <c r="E33" t="s">
@@ -5738,13 +5742,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>A33+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B34">
-        <f>B33+$P$8</f>
+        <f t="shared" si="3"/>
         <v>160.32499999999999</v>
       </c>
       <c r="E34" t="s">
@@ -5757,13 +5761,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>A34+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B35">
-        <f>B34+$P$8</f>
+        <f t="shared" si="3"/>
         <v>157.07499999999999</v>
       </c>
       <c r="E35" t="s">
@@ -5776,13 +5780,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>A35+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B36">
-        <f>B35+$P$8</f>
+        <f t="shared" si="3"/>
         <v>153.82499999999999</v>
       </c>
       <c r="E36" t="s">
@@ -5795,13 +5799,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>A36+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B37">
-        <f>B36+$P$8</f>
+        <f t="shared" si="3"/>
         <v>150.57499999999999</v>
       </c>
       <c r="E37" t="s">
@@ -5814,13 +5818,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>A37+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B38">
-        <f>B37+$P$8</f>
+        <f t="shared" si="3"/>
         <v>147.32499999999999</v>
       </c>
       <c r="E38" t="s">
@@ -5833,13 +5837,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>A38+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B39">
-        <f>B38+$P$8</f>
+        <f t="shared" si="3"/>
         <v>144.07499999999999</v>
       </c>
       <c r="E39" t="s">
@@ -5852,13 +5856,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>A39+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B40">
-        <f>B39+$P$8</f>
+        <f t="shared" si="3"/>
         <v>140.82499999999999</v>
       </c>
       <c r="E40" t="s">
@@ -5871,13 +5875,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>A40+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B41">
-        <f>B40+$P$8</f>
+        <f t="shared" si="3"/>
         <v>137.57499999999999</v>
       </c>
       <c r="E41" t="s">
@@ -5890,13 +5894,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>A41+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B42">
-        <f>B41+$P$8</f>
+        <f t="shared" si="3"/>
         <v>134.32499999999999</v>
       </c>
       <c r="E42" t="s">
@@ -5909,13 +5913,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>A42+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B43">
-        <f>B42+$P$8</f>
+        <f t="shared" si="3"/>
         <v>131.07499999999999</v>
       </c>
       <c r="E43" t="s">
@@ -5928,13 +5932,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>A43+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B44">
-        <f>B43+$P$8</f>
+        <f t="shared" si="3"/>
         <v>127.82499999999999</v>
       </c>
       <c r="E44" t="s">
@@ -5947,13 +5951,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>A44+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B45">
-        <f>B44+$P$8</f>
+        <f t="shared" si="3"/>
         <v>124.57499999999999</v>
       </c>
       <c r="E45" t="s">
@@ -5966,13 +5970,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>A45+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B46">
-        <f>B45+$P$8</f>
+        <f t="shared" si="3"/>
         <v>121.32499999999999</v>
       </c>
       <c r="E46" t="s">
@@ -5985,13 +5989,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>A46+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B47">
-        <f>B46+$P$8</f>
+        <f t="shared" si="3"/>
         <v>118.07499999999999</v>
       </c>
       <c r="E47" t="s">
@@ -6004,13 +6008,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>A47+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B48">
-        <f>B47+$P$8</f>
+        <f t="shared" si="3"/>
         <v>114.82499999999999</v>
       </c>
       <c r="E48" t="s">
@@ -6023,13 +6027,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>A48+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B49">
-        <f>B48+$P$8</f>
+        <f t="shared" si="3"/>
         <v>111.57499999999999</v>
       </c>
       <c r="E49" t="s">
@@ -6042,13 +6046,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>A49+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B50">
-        <f>B49+$P$8</f>
+        <f t="shared" si="3"/>
         <v>108.32499999999999</v>
       </c>
       <c r="E50" t="s">
@@ -6061,13 +6065,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>A50+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B51">
-        <f>B50+$P$8</f>
+        <f t="shared" si="3"/>
         <v>105.07499999999999</v>
       </c>
       <c r="E51" t="s">
@@ -6080,13 +6084,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>A51+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B52">
-        <f>B51+$P$8</f>
+        <f t="shared" si="3"/>
         <v>101.82499999999999</v>
       </c>
       <c r="E52" t="s">
@@ -6099,13 +6103,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>A52+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B53">
-        <f>B52+$P$8</f>
+        <f t="shared" si="3"/>
         <v>98.574999999999989</v>
       </c>
       <c r="E53" t="s">
@@ -6118,13 +6122,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>A53+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B54">
-        <f>B53+$P$8</f>
+        <f t="shared" si="3"/>
         <v>95.324999999999989</v>
       </c>
       <c r="E54" t="s">
@@ -6137,13 +6141,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>A54+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B55">
-        <f>B54+$P$8</f>
+        <f t="shared" si="3"/>
         <v>92.074999999999989</v>
       </c>
       <c r="E55" t="s">
@@ -6156,13 +6160,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f>A55+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B56">
-        <f>B55+$P$8</f>
+        <f t="shared" si="3"/>
         <v>88.824999999999989</v>
       </c>
       <c r="E56" t="s">
@@ -6175,13 +6179,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f>A56+$P$7</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="B57">
-        <f>B56+$P$8</f>
+        <f t="shared" si="3"/>
         <v>85.574999999999989</v>
       </c>
       <c r="E57" t="s">
@@ -6194,7 +6198,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>O4</f>
         <v>11.4</v>
@@ -6213,13 +6217,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f>A58+$P$7</f>
+        <f t="shared" ref="A59:A85" si="4">A58+$P$7</f>
         <v>11.4</v>
       </c>
       <c r="B59">
-        <f>B58+$P$8</f>
+        <f t="shared" ref="B59:B85" si="5">B58+$P$8</f>
         <v>168.5</v>
       </c>
       <c r="E59" t="s">
@@ -6232,13 +6236,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f>A59+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B60">
-        <f>B59+$P$8</f>
+        <f t="shared" si="5"/>
         <v>165.25</v>
       </c>
       <c r="E60" t="s">
@@ -6251,13 +6255,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f>A60+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B61">
-        <f>B60+$P$8</f>
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
       <c r="E61" t="s">
@@ -6270,13 +6274,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f>A61+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B62">
-        <f>B61+$P$8</f>
+        <f t="shared" si="5"/>
         <v>158.75</v>
       </c>
       <c r="E62" t="s">
@@ -6289,13 +6293,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f>A62+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B63">
-        <f>B62+$P$8</f>
+        <f t="shared" si="5"/>
         <v>155.5</v>
       </c>
       <c r="E63" t="s">
@@ -6308,13 +6312,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f>A63+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B64">
-        <f>B63+$P$8</f>
+        <f t="shared" si="5"/>
         <v>152.25</v>
       </c>
       <c r="E64" t="s">
@@ -6327,13 +6331,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f>A64+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B65">
-        <f>B64+$P$8</f>
+        <f t="shared" si="5"/>
         <v>149</v>
       </c>
       <c r="E65" t="s">
@@ -6346,13 +6350,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f>A65+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B66">
-        <f>B65+$P$8</f>
+        <f t="shared" si="5"/>
         <v>145.75</v>
       </c>
       <c r="E66" t="s">
@@ -6365,13 +6369,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f>A66+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B67">
-        <f>B66+$P$8</f>
+        <f t="shared" si="5"/>
         <v>142.5</v>
       </c>
       <c r="E67" t="s">
@@ -6384,13 +6388,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f>A67+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B68">
-        <f>B67+$P$8</f>
+        <f t="shared" si="5"/>
         <v>139.25</v>
       </c>
       <c r="E68" t="s">
@@ -6403,13 +6407,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f>A68+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B69">
-        <f>B68+$P$8</f>
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
       <c r="E69" t="s">
@@ -6422,13 +6426,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f>A69+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B70">
-        <f>B69+$P$8</f>
+        <f t="shared" si="5"/>
         <v>132.75</v>
       </c>
       <c r="E70" t="s">
@@ -6441,13 +6445,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f>A70+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B71">
-        <f>B70+$P$8</f>
+        <f t="shared" si="5"/>
         <v>129.5</v>
       </c>
       <c r="E71" t="s">
@@ -6460,13 +6464,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f>A71+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B72">
-        <f>B71+$P$8</f>
+        <f t="shared" si="5"/>
         <v>126.25</v>
       </c>
       <c r="E72" t="s">
@@ -6479,13 +6483,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f>A72+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B73">
-        <f>B72+$P$8</f>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="E73" t="s">
@@ -6498,13 +6502,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f>A73+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B74">
-        <f>B73+$P$8</f>
+        <f t="shared" si="5"/>
         <v>119.75</v>
       </c>
       <c r="E74" t="s">
@@ -6517,13 +6521,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f>A74+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B75">
-        <f>B74+$P$8</f>
+        <f t="shared" si="5"/>
         <v>116.5</v>
       </c>
       <c r="E75" t="s">
@@ -6536,13 +6540,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f>A75+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B76">
-        <f>B75+$P$8</f>
+        <f t="shared" si="5"/>
         <v>113.25</v>
       </c>
       <c r="E76" t="s">
@@ -6555,13 +6559,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f>A76+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B77">
-        <f>B76+$P$8</f>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="E77" t="s">
@@ -6574,13 +6578,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f>A77+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B78">
-        <f>B77+$P$8</f>
+        <f t="shared" si="5"/>
         <v>106.75</v>
       </c>
       <c r="E78" t="s">
@@ -6593,13 +6597,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f>A78+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B79">
-        <f>B78+$P$8</f>
+        <f t="shared" si="5"/>
         <v>103.5</v>
       </c>
       <c r="E79" t="s">
@@ -6612,13 +6616,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f>A79+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B80">
-        <f>B79+$P$8</f>
+        <f t="shared" si="5"/>
         <v>100.25</v>
       </c>
       <c r="E80" t="s">
@@ -6631,13 +6635,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f>A80+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B81">
-        <f>B80+$P$8</f>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="E81" t="s">
@@ -6650,13 +6654,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f>A81+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B82">
-        <f>B81+$P$8</f>
+        <f t="shared" si="5"/>
         <v>93.75</v>
       </c>
       <c r="E82" t="s">
@@ -6669,13 +6673,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f>A82+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B83">
-        <f>B82+$P$8</f>
+        <f t="shared" si="5"/>
         <v>90.5</v>
       </c>
       <c r="E83" t="s">
@@ -6688,13 +6692,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f>A83+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B84">
-        <f>B83+$P$8</f>
+        <f t="shared" si="5"/>
         <v>87.25</v>
       </c>
       <c r="E84" t="s">
@@ -6707,13 +6711,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f>A84+$P$7</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="B85">
-        <f>B84+$P$8</f>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="E85" t="s">
@@ -6724,6 +6728,1405 @@
       </c>
       <c r="M85">
         <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC65FA7F-DFB4-4BB8-A052-C29856FA8F8E}">
+  <dimension ref="A1:AB85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="1.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>P2</f>
+        <v>9.25</v>
+      </c>
+      <c r="C2">
+        <f>Q2</f>
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>360</v>
+      </c>
+      <c r="P2">
+        <v>9.25</v>
+      </c>
+      <c r="Q2">
+        <v>188</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>B2+$Q$7</f>
+        <v>14.375</v>
+      </c>
+      <c r="C3">
+        <f>C2+$Q$8</f>
+        <v>185.91249999999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>360</v>
+      </c>
+      <c r="P3">
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="Q3">
+        <v>188</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>136</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>137</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>$B$2</f>
+        <v>9.25</v>
+      </c>
+      <c r="C4">
+        <f>C3+$Q$8</f>
+        <v>183.82499999999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>360</v>
+      </c>
+      <c r="P4">
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="Q4">
+        <v>186.42500000000001</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>135</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>$B$3</f>
+        <v>14.375</v>
+      </c>
+      <c r="C5">
+        <f>C4+$Q$8</f>
+        <v>181.73749999999998</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B11" si="0">$B$2</f>
+        <v>9.25</v>
+      </c>
+      <c r="C6">
+        <f>C5+$Q$8</f>
+        <v>179.64999999999998</v>
+      </c>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B11" si="1">$B$3</f>
+        <v>14.375</v>
+      </c>
+      <c r="C7">
+        <f>C6+$Q$8</f>
+        <v>177.56249999999997</v>
+      </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>360</v>
+      </c>
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7">
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:B11" si="2">$B$2</f>
+        <v>9.25</v>
+      </c>
+      <c r="C8">
+        <f>C7+$Q$8</f>
+        <v>175.47499999999997</v>
+      </c>
+      <c r="F8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>360</v>
+      </c>
+      <c r="P8" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q8">
+        <f>P11/2</f>
+        <v>-2.0874999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:B11" si="3">$B$3</f>
+        <v>14.375</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:C11" si="4">C8+$Q$8</f>
+        <v>173.38749999999996</v>
+      </c>
+      <c r="F9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:B28" si="5">$B$2</f>
+        <v>9.25</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>171.29999999999995</v>
+      </c>
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:B29" si="6">$B$3</f>
+        <v>14.375</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>169.21249999999995</v>
+      </c>
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
+      <c r="P11">
+        <v>-4.1749999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="5"/>
+        <v>9.25</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:C18" si="7">C11+$Q$8</f>
+        <v>167.12499999999994</v>
+      </c>
+      <c r="F12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="6"/>
+        <v>14.375</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="7"/>
+        <v>165.03749999999994</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="5"/>
+        <v>9.25</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="7"/>
+        <v>162.94999999999993</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="6"/>
+        <v>14.375</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="7"/>
+        <v>160.86249999999993</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="5"/>
+        <v>9.25</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:C29" si="8">C15+$Q$8</f>
+        <v>158.77499999999992</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="6"/>
+        <v>14.375</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="8"/>
+        <v>156.68749999999991</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="5"/>
+        <v>9.25</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="8"/>
+        <v>154.59999999999991</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="6"/>
+        <v>14.375</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="8"/>
+        <v>152.5124999999999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="5"/>
+        <v>9.25</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="8"/>
+        <v>150.4249999999999</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="6"/>
+        <v>14.375</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="8"/>
+        <v>148.33749999999989</v>
+      </c>
+      <c r="F21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="5"/>
+        <v>9.25</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="8"/>
+        <v>146.24999999999989</v>
+      </c>
+      <c r="F22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="6"/>
+        <v>14.375</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="8"/>
+        <v>144.16249999999988</v>
+      </c>
+      <c r="F23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="5"/>
+        <v>9.25</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="8"/>
+        <v>142.07499999999987</v>
+      </c>
+      <c r="F24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="6"/>
+        <v>14.375</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="8"/>
+        <v>139.98749999999987</v>
+      </c>
+      <c r="F25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="5"/>
+        <v>9.25</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="8"/>
+        <v>137.89999999999986</v>
+      </c>
+      <c r="F26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="6"/>
+        <v>14.375</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="8"/>
+        <v>135.81249999999986</v>
+      </c>
+      <c r="F27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="5"/>
+        <v>9.25</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="8"/>
+        <v>133.72499999999985</v>
+      </c>
+      <c r="F28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" si="6"/>
+        <v>14.375</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="8"/>
+        <v>131.63749999999985</v>
+      </c>
+      <c r="F29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>P3</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C30">
+        <f>Q3</f>
+        <v>188</v>
+      </c>
+      <c r="F30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>B30+$Q$7</f>
+        <v>11.4</v>
+      </c>
+      <c r="C31">
+        <f>C30+$Q$8</f>
+        <v>185.91249999999999</v>
+      </c>
+      <c r="F31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>$B$30</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:C57" si="9">C31+$Q$8</f>
+        <v>183.82499999999999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>$B$31</f>
+        <v>11.4</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="9"/>
+        <v>181.73749999999998</v>
+      </c>
+      <c r="F33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" ref="B34:B57" si="10">$B$30</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="9"/>
+        <v>179.64999999999998</v>
+      </c>
+      <c r="F34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" ref="B35:B57" si="11">$B$31</f>
+        <v>11.4</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="9"/>
+        <v>177.56249999999997</v>
+      </c>
+      <c r="F35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" ref="B36:B57" si="12">$B$30</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="9"/>
+        <v>175.47499999999997</v>
+      </c>
+      <c r="F36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" ref="B37:B57" si="13">$B$31</f>
+        <v>11.4</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="9"/>
+        <v>173.38749999999996</v>
+      </c>
+      <c r="F37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" ref="B38:B57" si="14">$B$30</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="9"/>
+        <v>171.29999999999995</v>
+      </c>
+      <c r="F38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" ref="B39:B57" si="15">$B$31</f>
+        <v>11.4</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="9"/>
+        <v>169.21249999999995</v>
+      </c>
+      <c r="F39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" ref="B40:B57" si="16">$B$30</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="9"/>
+        <v>167.12499999999994</v>
+      </c>
+      <c r="F40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" ref="B41:B57" si="17">$B$31</f>
+        <v>11.4</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="9"/>
+        <v>165.03749999999994</v>
+      </c>
+      <c r="F41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" ref="B42:B57" si="18">$B$30</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="9"/>
+        <v>162.94999999999993</v>
+      </c>
+      <c r="F42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" ref="B43:B57" si="19">$B$31</f>
+        <v>11.4</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="9"/>
+        <v>160.86249999999993</v>
+      </c>
+      <c r="F43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" ref="B44:B57" si="20">$B$30</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="9"/>
+        <v>158.77499999999992</v>
+      </c>
+      <c r="F44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" ref="B45:B57" si="21">$B$31</f>
+        <v>11.4</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="9"/>
+        <v>156.68749999999991</v>
+      </c>
+      <c r="F45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" ref="B46:B57" si="22">$B$30</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="9"/>
+        <v>154.59999999999991</v>
+      </c>
+      <c r="F46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" ref="B47:B57" si="23">$B$31</f>
+        <v>11.4</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="9"/>
+        <v>152.5124999999999</v>
+      </c>
+      <c r="F47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" ref="B48:B57" si="24">$B$30</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="9"/>
+        <v>150.4249999999999</v>
+      </c>
+      <c r="F48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" ref="B49:B57" si="25">$B$31</f>
+        <v>11.4</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="9"/>
+        <v>148.33749999999989</v>
+      </c>
+      <c r="F49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" ref="B50:B57" si="26">$B$30</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="9"/>
+        <v>146.24999999999989</v>
+      </c>
+      <c r="F50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" ref="B51:B57" si="27">$B$31</f>
+        <v>11.4</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="9"/>
+        <v>144.16249999999988</v>
+      </c>
+      <c r="F51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" ref="B52:B57" si="28">$B$30</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="9"/>
+        <v>142.07499999999987</v>
+      </c>
+      <c r="F52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" ref="B53:B57" si="29">$B$31</f>
+        <v>11.4</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="9"/>
+        <v>139.98749999999987</v>
+      </c>
+      <c r="F53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" ref="B54:B57" si="30">$B$30</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="9"/>
+        <v>137.89999999999986</v>
+      </c>
+      <c r="F54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" ref="B55:B57" si="31">$B$31</f>
+        <v>11.4</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="9"/>
+        <v>135.81249999999986</v>
+      </c>
+      <c r="F55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" ref="B56:B57" si="32">$B$30</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="9"/>
+        <v>133.72499999999985</v>
+      </c>
+      <c r="F56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" ref="B57" si="33">$B$31</f>
+        <v>11.4</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="9"/>
+        <v>131.63749999999985</v>
+      </c>
+      <c r="F57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f>P4</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C58">
+        <f>Q4</f>
+        <v>186.42500000000001</v>
+      </c>
+      <c r="F58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f>B58+$Q$7</f>
+        <v>11.4</v>
+      </c>
+      <c r="C59">
+        <f>C58+$Q$8</f>
+        <v>184.33750000000001</v>
+      </c>
+      <c r="F59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f>$B$58</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60:C61" si="34">C59+$Q$8</f>
+        <v>182.25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f>$B$59</f>
+        <v>11.4</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="34"/>
+        <v>180.16249999999999</v>
+      </c>
+      <c r="F61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" ref="B62:B85" si="35">$B$58</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:C85" si="36">C61+$Q$8</f>
+        <v>178.07499999999999</v>
+      </c>
+      <c r="F62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" ref="B63:B85" si="37">$B$59</f>
+        <v>11.4</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="36"/>
+        <v>175.98749999999998</v>
+      </c>
+      <c r="F63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" ref="B64:B85" si="38">$B$58</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="36"/>
+        <v>173.89999999999998</v>
+      </c>
+      <c r="F64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" ref="B65:B85" si="39">$B$59</f>
+        <v>11.4</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="36"/>
+        <v>171.81249999999997</v>
+      </c>
+      <c r="F65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" ref="B66:B85" si="40">$B$58</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="36"/>
+        <v>169.72499999999997</v>
+      </c>
+      <c r="F66" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" ref="B67:B85" si="41">$B$59</f>
+        <v>11.4</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="36"/>
+        <v>167.63749999999996</v>
+      </c>
+      <c r="F67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f t="shared" ref="B68:B85" si="42">$B$58</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="36"/>
+        <v>165.54999999999995</v>
+      </c>
+      <c r="F68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f t="shared" ref="B69:B85" si="43">$B$59</f>
+        <v>11.4</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="36"/>
+        <v>163.46249999999995</v>
+      </c>
+      <c r="F69" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f t="shared" ref="B70:B85" si="44">$B$58</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="36"/>
+        <v>161.37499999999994</v>
+      </c>
+      <c r="F70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f t="shared" ref="B71:B85" si="45">$B$59</f>
+        <v>11.4</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="36"/>
+        <v>159.28749999999994</v>
+      </c>
+      <c r="F71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f t="shared" ref="B72:B85" si="46">$B$58</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="36"/>
+        <v>157.19999999999993</v>
+      </c>
+      <c r="F72" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f t="shared" ref="B73:B85" si="47">$B$59</f>
+        <v>11.4</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="36"/>
+        <v>155.11249999999993</v>
+      </c>
+      <c r="F73" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f t="shared" ref="B74:B85" si="48">$B$58</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="36"/>
+        <v>153.02499999999992</v>
+      </c>
+      <c r="F74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f t="shared" ref="B75:B85" si="49">$B$59</f>
+        <v>11.4</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="36"/>
+        <v>150.93749999999991</v>
+      </c>
+      <c r="F75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f t="shared" ref="B76:B85" si="50">$B$58</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="36"/>
+        <v>148.84999999999991</v>
+      </c>
+      <c r="F76" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f t="shared" ref="B77:B85" si="51">$B$59</f>
+        <v>11.4</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="36"/>
+        <v>146.7624999999999</v>
+      </c>
+      <c r="F77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f t="shared" ref="B78:B85" si="52">$B$58</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="36"/>
+        <v>144.6749999999999</v>
+      </c>
+      <c r="F78" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <f t="shared" ref="B79:B85" si="53">$B$59</f>
+        <v>11.4</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="36"/>
+        <v>142.58749999999989</v>
+      </c>
+      <c r="F79" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <f t="shared" ref="B80:B85" si="54">$B$58</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="36"/>
+        <v>140.49999999999989</v>
+      </c>
+      <c r="F80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <f t="shared" ref="B81:B85" si="55">$B$59</f>
+        <v>11.4</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="36"/>
+        <v>138.41249999999988</v>
+      </c>
+      <c r="F81" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <f t="shared" ref="B82:B85" si="56">$B$58</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="36"/>
+        <v>136.32499999999987</v>
+      </c>
+      <c r="F82" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <f t="shared" ref="B83:B85" si="57">$B$59</f>
+        <v>11.4</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="36"/>
+        <v>134.23749999999987</v>
+      </c>
+      <c r="F83" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <f t="shared" ref="B84:B85" si="58">$B$58</f>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="36"/>
+        <v>132.14999999999986</v>
+      </c>
+      <c r="F84" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <f t="shared" ref="B85" si="59">$B$59</f>
+        <v>11.4</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="36"/>
+        <v>130.06249999999986</v>
+      </c>
+      <c r="F85" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Balance Circuit placement.xlsx
+++ b/Documents/Balance Circuit placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Will\Documents\GitHub\HV_BMS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D20740-6310-4FB7-990A-3644BDC2A393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B806832-25D4-406B-901A-AD4AE8DA4099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22815" yWindow="2700" windowWidth="14325" windowHeight="11385" activeTab="3" xr2:uid="{28CC7CEF-CD1D-4D1E-8837-1C6BE0070208}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{28CC7CEF-CD1D-4D1E-8837-1C6BE0070208}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="221">
   <si>
     <t>Dy</t>
   </si>
@@ -1653,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB012BD8-3966-4A1F-801C-FB2F5C276C59}">
   <dimension ref="A1:AA99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:AA2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25:X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,9 +1714,9 @@
         <f t="array" ref="A2:A15">O3</f>
         <v>28.463000000000001</v>
       </c>
-      <c r="B2" s="2">
-        <f t="shared" ref="B2:B13" si="0">B4+$P$22</f>
-        <v>111.075</v>
+      <c r="B2" s="5">
+        <f t="shared" ref="B2:B13" si="0">B3+$P$22</f>
+        <v>103.47499999999999</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1735,6 +1735,9 @@
       <c r="M2" s="3">
         <v>360</v>
       </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
       <c r="O2" t="s">
         <v>20</v>
       </c>
@@ -1781,7 +1784,7 @@
       </c>
       <c r="B3" s="5">
         <f t="shared" si="0"/>
-        <v>54.475000000000001</v>
+        <v>96.474999999999994</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1800,6 +1803,9 @@
       <c r="M3" s="6">
         <v>360</v>
       </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
       <c r="O3">
         <v>28.463000000000001</v>
       </c>
@@ -1846,7 +1852,7 @@
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
-        <v>104.075</v>
+        <v>89.474999999999994</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1865,6 +1871,9 @@
       <c r="M4" s="6">
         <v>360</v>
       </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
       <c r="O4">
         <v>34.774999999999999</v>
       </c>
@@ -1911,7 +1920,7 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
-        <v>47.475000000000001</v>
+        <v>82.474999999999994</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1930,6 +1939,9 @@
       <c r="M5" s="6">
         <v>360</v>
       </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
       <c r="O5">
         <v>41.274999999999999</v>
       </c>
@@ -1976,7 +1988,7 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>97.075000000000003</v>
+        <v>75.474999999999994</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1995,6 +2007,9 @@
       <c r="M6" s="6">
         <v>360</v>
       </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
       <c r="O6">
         <v>41.274999999999999</v>
       </c>
@@ -2041,7 +2056,7 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>40.475000000000001</v>
+        <v>68.474999999999994</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2060,6 +2075,9 @@
       <c r="M7" s="6">
         <v>360</v>
       </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
       <c r="O7">
         <v>38.424999999999997</v>
       </c>
@@ -2106,7 +2124,7 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>90.075000000000003</v>
+        <v>61.475000000000001</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2125,6 +2143,9 @@
       <c r="M8" s="6">
         <v>360</v>
       </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
       <c r="O8">
         <v>33.786999999999999</v>
       </c>
@@ -2171,7 +2192,7 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>33.475000000000001</v>
+        <v>54.475000000000001</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2190,6 +2211,9 @@
       <c r="M9" s="6">
         <v>360</v>
       </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
       <c r="O9">
         <v>46.024999999999999</v>
       </c>
@@ -2236,7 +2260,7 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>83.075000000000003</v>
+        <v>47.475000000000001</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2255,6 +2279,9 @@
       <c r="M10" s="6">
         <v>360</v>
       </c>
+      <c r="N10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -2262,7 +2289,7 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>26.475000000000001</v>
+        <v>40.475000000000001</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2281,6 +2308,9 @@
       <c r="M11" s="6">
         <v>360</v>
       </c>
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
       <c r="O11" t="s">
         <v>133</v>
       </c>
@@ -2291,7 +2321,7 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>76.075000000000003</v>
+        <v>33.475000000000001</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2310,6 +2340,9 @@
       <c r="M12" s="6">
         <v>360</v>
       </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
       <c r="O12" t="s">
         <v>20</v>
       </c>
@@ -2355,8 +2388,8 @@
         <v>28.463000000000001</v>
       </c>
       <c r="B13" s="5">
-        <f t="shared" si="0"/>
-        <v>19.475000000000001</v>
+        <f>B14+$P$22</f>
+        <v>26.475000000000001</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2375,6 +2408,9 @@
       <c r="M13" s="6">
         <v>360</v>
       </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
       <c r="O13">
         <v>24.913</v>
       </c>
@@ -2420,8 +2456,8 @@
         <v>28.463000000000001</v>
       </c>
       <c r="B14" s="5">
-        <f>P13</f>
-        <v>69.075000000000003</v>
+        <f>B15+$P$22</f>
+        <v>19.475000000000001</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2440,6 +2476,9 @@
       <c r="M14" s="6">
         <v>360</v>
       </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
       <c r="O14">
         <v>31.225000000000001</v>
       </c>
@@ -2505,6 +2544,9 @@
       <c r="M15" s="9">
         <v>360</v>
       </c>
+      <c r="N15" t="s">
+        <v>53</v>
+      </c>
       <c r="O15">
         <v>37.725000000000001</v>
       </c>
@@ -2551,8 +2593,8 @@
         <v>34.774999999999999</v>
       </c>
       <c r="B16" s="5">
-        <f t="shared" ref="B16:B27" si="1">B18+$P$22</f>
-        <v>113.983</v>
+        <f t="shared" ref="B16:B27" si="1">B17+$P$22</f>
+        <v>106.383</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2571,6 +2613,9 @@
       <c r="M16" s="3">
         <v>180</v>
       </c>
+      <c r="N16" t="s">
+        <v>54</v>
+      </c>
       <c r="O16">
         <v>37.725000000000001</v>
       </c>
@@ -2617,7 +2662,7 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" si="1"/>
-        <v>57.382999999999996</v>
+        <v>99.382999999999996</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2636,6 +2681,9 @@
       <c r="M17" s="6">
         <v>180</v>
       </c>
+      <c r="N17" t="s">
+        <v>55</v>
+      </c>
       <c r="O17">
         <v>34.875</v>
       </c>
@@ -2682,7 +2730,7 @@
       </c>
       <c r="B18" s="5">
         <f t="shared" si="1"/>
-        <v>106.983</v>
+        <v>92.382999999999996</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2701,6 +2749,9 @@
       <c r="M18" s="6">
         <v>180</v>
       </c>
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
       <c r="O18">
         <v>30.236999999999998</v>
       </c>
@@ -2747,7 +2798,7 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" si="1"/>
-        <v>50.382999999999996</v>
+        <v>85.382999999999996</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2766,6 +2817,9 @@
       <c r="M19" s="6">
         <v>180</v>
       </c>
+      <c r="N19" t="s">
+        <v>57</v>
+      </c>
       <c r="O19">
         <v>42.475000000000001</v>
       </c>
@@ -2812,7 +2866,7 @@
       </c>
       <c r="B20" s="5">
         <f t="shared" si="1"/>
-        <v>99.983000000000004</v>
+        <v>78.382999999999996</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2831,6 +2885,9 @@
       <c r="M20" s="6">
         <v>180</v>
       </c>
+      <c r="N20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -2838,7 +2895,7 @@
       </c>
       <c r="B21" s="5">
         <f t="shared" si="1"/>
-        <v>43.382999999999996</v>
+        <v>71.382999999999996</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2857,6 +2914,9 @@
       <c r="M21" s="6">
         <v>180</v>
       </c>
+      <c r="N21" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -2864,7 +2924,7 @@
       </c>
       <c r="B22" s="5">
         <f t="shared" si="1"/>
-        <v>92.983000000000004</v>
+        <v>64.382999999999996</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2883,6 +2943,9 @@
       <c r="M22" s="6">
         <v>180</v>
       </c>
+      <c r="N22" t="s">
+        <v>60</v>
+      </c>
       <c r="O22" t="s">
         <v>0</v>
       </c>
@@ -2896,7 +2959,7 @@
       </c>
       <c r="B23" s="5">
         <f t="shared" si="1"/>
-        <v>36.382999999999996</v>
+        <v>57.382999999999996</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2915,6 +2978,9 @@
       <c r="M23" s="6">
         <v>180</v>
       </c>
+      <c r="N23" t="s">
+        <v>61</v>
+      </c>
       <c r="O23" t="s">
         <v>33</v>
       </c>
@@ -2928,7 +2994,7 @@
       </c>
       <c r="B24" s="5">
         <f t="shared" si="1"/>
-        <v>85.983000000000004</v>
+        <v>50.382999999999996</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2947,6 +3013,9 @@
       <c r="M24" s="6">
         <v>180</v>
       </c>
+      <c r="N24" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -2954,7 +3023,7 @@
       </c>
       <c r="B25" s="5">
         <f t="shared" si="1"/>
-        <v>29.382999999999999</v>
+        <v>43.382999999999996</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2973,6 +3042,9 @@
       <c r="M25" s="6">
         <v>180</v>
       </c>
+      <c r="N25" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -2980,7 +3052,7 @@
       </c>
       <c r="B26" s="5">
         <f t="shared" si="1"/>
-        <v>78.983000000000004</v>
+        <v>36.382999999999996</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2999,6 +3071,9 @@
       <c r="M26" s="6">
         <v>180</v>
       </c>
+      <c r="N26" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -3006,7 +3081,7 @@
       </c>
       <c r="B27" s="5">
         <f t="shared" si="1"/>
-        <v>22.382999999999999</v>
+        <v>29.382999999999999</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -3025,14 +3100,17 @@
       <c r="M27" s="6">
         <v>180</v>
       </c>
+      <c r="N27" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>34.774999999999999</v>
       </c>
       <c r="B28" s="5">
-        <f>P14</f>
-        <v>71.983000000000004</v>
+        <f>B29+$P$22</f>
+        <v>22.382999999999999</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -3051,6 +3129,9 @@
       <c r="M28" s="6">
         <v>180</v>
       </c>
+      <c r="N28" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
@@ -3077,6 +3158,9 @@
       <c r="M29" s="9">
         <v>180</v>
       </c>
+      <c r="N29" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -3084,8 +3168,8 @@
         <v>41.274999999999999</v>
       </c>
       <c r="B30" s="5">
-        <f t="shared" ref="B30:B41" si="2">B32+$P$22</f>
-        <v>113.175</v>
+        <f t="shared" ref="B30:B41" si="2">B31+$P$22</f>
+        <v>105.575</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3104,6 +3188,9 @@
       <c r="M30" s="3">
         <v>360</v>
       </c>
+      <c r="N30" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -3111,7 +3198,7 @@
       </c>
       <c r="B31" s="5">
         <f t="shared" si="2"/>
-        <v>56.575000000000003</v>
+        <v>98.575000000000003</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -3130,6 +3217,9 @@
       <c r="M31" s="6">
         <v>360</v>
       </c>
+      <c r="N31" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -3137,7 +3227,7 @@
       </c>
       <c r="B32" s="5">
         <f t="shared" si="2"/>
-        <v>106.175</v>
+        <v>91.575000000000003</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -3156,14 +3246,17 @@
       <c r="M32" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B33" s="5">
         <f t="shared" si="2"/>
-        <v>49.575000000000003</v>
+        <v>84.575000000000003</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -3182,14 +3275,17 @@
       <c r="M33" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B34" s="5">
         <f t="shared" si="2"/>
-        <v>99.174999999999997</v>
+        <v>77.575000000000003</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3208,14 +3304,17 @@
       <c r="M34" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B35" s="5">
         <f t="shared" si="2"/>
-        <v>42.575000000000003</v>
+        <v>70.575000000000003</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3234,14 +3333,17 @@
       <c r="M35" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B36" s="5">
         <f t="shared" si="2"/>
-        <v>92.174999999999997</v>
+        <v>63.575000000000003</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3260,14 +3362,17 @@
       <c r="M36" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B37" s="5">
         <f t="shared" si="2"/>
-        <v>35.575000000000003</v>
+        <v>56.575000000000003</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3286,14 +3391,17 @@
       <c r="M37" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B38" s="5">
         <f t="shared" si="2"/>
-        <v>85.174999999999997</v>
+        <v>49.575000000000003</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -3312,14 +3420,17 @@
       <c r="M38" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B39" s="5">
         <f t="shared" si="2"/>
-        <v>28.574999999999999</v>
+        <v>42.575000000000003</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -3338,14 +3449,17 @@
       <c r="M39" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B40" s="5">
         <f t="shared" si="2"/>
-        <v>78.174999999999997</v>
+        <v>35.575000000000003</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -3364,14 +3478,17 @@
       <c r="M40" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" si="2"/>
-        <v>21.574999999999999</v>
+        <v>28.574999999999999</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -3390,14 +3507,17 @@
       <c r="M41" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B42" s="5">
-        <f>P15</f>
-        <v>71.174999999999997</v>
+        <f>B43+$P$22</f>
+        <v>21.574999999999999</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -3416,8 +3536,11 @@
       <c r="M42" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>41.274999999999999</v>
       </c>
@@ -3442,15 +3565,18 @@
       <c r="M43" s="9">
         <v>360</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="array" ref="A44:A57">O6</f>
         <v>41.274999999999999</v>
       </c>
       <c r="B44" s="5">
-        <f t="shared" ref="B44:B55" si="3">B46+$P$22</f>
-        <v>114.95</v>
+        <f t="shared" ref="B44:B55" si="3">B45+$P$22</f>
+        <v>107.35</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3469,14 +3595,17 @@
       <c r="M44" s="3">
         <v>360</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B45" s="5">
         <f t="shared" si="3"/>
-        <v>58.35</v>
+        <v>100.35</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -3495,14 +3624,17 @@
       <c r="M45" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B46" s="5">
         <f t="shared" si="3"/>
-        <v>107.95</v>
+        <v>93.35</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -3521,14 +3653,17 @@
       <c r="M46" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B47" s="5">
         <f t="shared" si="3"/>
-        <v>51.35</v>
+        <v>86.35</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -3547,14 +3682,17 @@
       <c r="M47" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B48" s="5">
         <f t="shared" si="3"/>
-        <v>100.95</v>
+        <v>79.349999999999994</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -3573,14 +3711,17 @@
       <c r="M48" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B49" s="5">
         <f t="shared" si="3"/>
-        <v>44.35</v>
+        <v>72.349999999999994</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -3599,14 +3740,17 @@
       <c r="M49" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B50" s="5">
         <f t="shared" si="3"/>
-        <v>93.95</v>
+        <v>65.349999999999994</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -3625,14 +3769,17 @@
       <c r="M50" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B51" s="5">
         <f t="shared" si="3"/>
-        <v>37.35</v>
+        <v>58.35</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -3651,14 +3798,17 @@
       <c r="M51" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B52" s="5">
         <f t="shared" si="3"/>
-        <v>86.95</v>
+        <v>51.35</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -3677,14 +3827,17 @@
       <c r="M52" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B53" s="5">
         <f t="shared" si="3"/>
-        <v>30.35</v>
+        <v>44.35</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -3703,14 +3856,17 @@
       <c r="M53" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B54" s="5">
         <f t="shared" si="3"/>
-        <v>79.95</v>
+        <v>37.35</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -3729,14 +3885,17 @@
       <c r="M54" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B55" s="5">
         <f t="shared" si="3"/>
-        <v>23.35</v>
+        <v>30.35</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -3755,14 +3914,17 @@
       <c r="M55" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B56" s="5">
-        <f>P16</f>
-        <v>72.95</v>
+        <f>B57+$P$22</f>
+        <v>23.35</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -3781,8 +3943,11 @@
       <c r="M56" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>41.274999999999999</v>
       </c>
@@ -3807,15 +3972,18 @@
       <c r="M57" s="9">
         <v>360</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="array" ref="A58:A71">O7</f>
         <v>38.424999999999997</v>
       </c>
       <c r="B58" s="5">
-        <f t="shared" ref="B58:B69" si="4">B60+$P$22</f>
-        <v>114.075</v>
+        <f t="shared" ref="B58:B69" si="4">B59+$P$22</f>
+        <v>106.47499999999999</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3834,14 +4002,17 @@
       <c r="M58" s="3">
         <v>270</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>38.424999999999997</v>
       </c>
       <c r="B59" s="5">
         <f t="shared" si="4"/>
-        <v>57.475000000000001</v>
+        <v>99.474999999999994</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -3860,14 +4031,17 @@
       <c r="M59" s="6">
         <v>270</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>38.424999999999997</v>
       </c>
       <c r="B60" s="5">
         <f t="shared" si="4"/>
-        <v>107.075</v>
+        <v>92.474999999999994</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -3886,14 +4060,17 @@
       <c r="M60" s="6">
         <v>270</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>38.424999999999997</v>
       </c>
       <c r="B61" s="5">
         <f t="shared" si="4"/>
-        <v>50.475000000000001</v>
+        <v>85.474999999999994</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -3912,14 +4089,17 @@
       <c r="M61" s="6">
         <v>270</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>38.424999999999997</v>
       </c>
       <c r="B62" s="5">
         <f t="shared" si="4"/>
-        <v>100.075</v>
+        <v>78.474999999999994</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -3938,14 +4118,17 @@
       <c r="M62" s="6">
         <v>270</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>38.424999999999997</v>
       </c>
       <c r="B63" s="5">
         <f t="shared" si="4"/>
-        <v>43.475000000000001</v>
+        <v>71.474999999999994</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -3964,14 +4147,17 @@
       <c r="M63" s="6">
         <v>270</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>38.424999999999997</v>
       </c>
       <c r="B64" s="5">
         <f t="shared" si="4"/>
-        <v>93.075000000000003</v>
+        <v>64.474999999999994</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -3990,14 +4176,17 @@
       <c r="M64" s="6">
         <v>270</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>38.424999999999997</v>
       </c>
       <c r="B65" s="5">
         <f t="shared" si="4"/>
-        <v>36.475000000000001</v>
+        <v>57.475000000000001</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -4016,14 +4205,17 @@
       <c r="M65" s="6">
         <v>270</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>38.424999999999997</v>
       </c>
       <c r="B66" s="5">
         <f t="shared" si="4"/>
-        <v>86.075000000000003</v>
+        <v>50.475000000000001</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -4042,14 +4234,17 @@
       <c r="M66" s="6">
         <v>270</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>38.424999999999997</v>
       </c>
       <c r="B67" s="5">
         <f t="shared" si="4"/>
-        <v>29.475000000000001</v>
+        <v>43.475000000000001</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -4069,13 +4264,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>38.424999999999997</v>
       </c>
       <c r="B68" s="5">
         <f t="shared" si="4"/>
-        <v>79.075000000000003</v>
+        <v>36.475000000000001</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -4095,13 +4290,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>38.424999999999997</v>
       </c>
       <c r="B69" s="5">
         <f t="shared" si="4"/>
-        <v>22.475000000000001</v>
+        <v>29.475000000000001</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -4121,13 +4316,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>38.424999999999997</v>
       </c>
       <c r="B70" s="5">
-        <f>P17</f>
-        <v>72.075000000000003</v>
+        <f>B71+$P$22</f>
+        <v>22.475000000000001</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -4147,7 +4342,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>38.424999999999997</v>
       </c>
@@ -4173,14 +4368,14 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f t="array" ref="A72:A85">O8</f>
         <v>33.786999999999999</v>
       </c>
       <c r="B72" s="5">
-        <f t="shared" ref="B72:B83" si="5">B74+$P$22</f>
-        <v>111.075</v>
+        <f t="shared" ref="B72:B83" si="5">B73+$P$22</f>
+        <v>103.47499999999999</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -4200,13 +4395,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>33.786999999999999</v>
       </c>
       <c r="B73" s="5">
         <f t="shared" si="5"/>
-        <v>54.475000000000001</v>
+        <v>96.474999999999994</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -4225,14 +4420,17 @@
       <c r="M73" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>33.786999999999999</v>
       </c>
       <c r="B74" s="5">
         <f t="shared" si="5"/>
-        <v>104.075</v>
+        <v>89.474999999999994</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -4251,14 +4449,17 @@
       <c r="M74" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>33.786999999999999</v>
       </c>
       <c r="B75" s="5">
         <f t="shared" si="5"/>
-        <v>47.475000000000001</v>
+        <v>82.474999999999994</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -4277,14 +4478,17 @@
       <c r="M75" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>33.786999999999999</v>
       </c>
       <c r="B76" s="5">
         <f t="shared" si="5"/>
-        <v>97.075000000000003</v>
+        <v>75.474999999999994</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -4303,14 +4507,17 @@
       <c r="M76" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>33.786999999999999</v>
       </c>
       <c r="B77" s="5">
         <f t="shared" si="5"/>
-        <v>40.475000000000001</v>
+        <v>68.474999999999994</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -4329,14 +4536,17 @@
       <c r="M77" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>33.786999999999999</v>
       </c>
       <c r="B78" s="5">
         <f t="shared" si="5"/>
-        <v>90.075000000000003</v>
+        <v>61.475000000000001</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -4355,14 +4565,17 @@
       <c r="M78" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>33.786999999999999</v>
       </c>
       <c r="B79" s="5">
         <f t="shared" si="5"/>
-        <v>33.475000000000001</v>
+        <v>54.475000000000001</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -4381,14 +4594,17 @@
       <c r="M79" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>33.786999999999999</v>
       </c>
       <c r="B80" s="5">
         <f t="shared" si="5"/>
-        <v>83.075000000000003</v>
+        <v>47.475000000000001</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -4407,14 +4623,17 @@
       <c r="M80" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>33.786999999999999</v>
       </c>
       <c r="B81" s="5">
         <f t="shared" si="5"/>
-        <v>26.475000000000001</v>
+        <v>40.475000000000001</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -4433,14 +4652,17 @@
       <c r="M81" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>33.786999999999999</v>
       </c>
       <c r="B82" s="5">
         <f t="shared" si="5"/>
-        <v>76.075000000000003</v>
+        <v>33.475000000000001</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -4459,14 +4681,17 @@
       <c r="M82" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>33.786999999999999</v>
       </c>
       <c r="B83" s="5">
         <f t="shared" si="5"/>
-        <v>19.475000000000001</v>
+        <v>26.475000000000001</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -4485,14 +4710,17 @@
       <c r="M83" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>33.786999999999999</v>
       </c>
       <c r="B84" s="5">
-        <f>P18</f>
-        <v>69.075000000000003</v>
+        <f>B85+$P$22</f>
+        <v>19.475000000000001</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -4511,8 +4739,11 @@
       <c r="M84" s="6">
         <v>360</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>33.786999999999999</v>
       </c>
@@ -4537,15 +4768,18 @@
       <c r="M85" s="9">
         <v>360</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f t="array" ref="A86:A99">O9</f>
         <v>46.024999999999999</v>
       </c>
       <c r="B86" s="5">
-        <f t="shared" ref="B86:B97" si="6">B88+$P$22</f>
-        <v>114.95</v>
+        <f>B87+$P$22</f>
+        <v>107.35</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -4564,14 +4798,17 @@
       <c r="M86" s="3">
         <v>180</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>46.024999999999999</v>
       </c>
       <c r="B87" s="5">
-        <f t="shared" si="6"/>
-        <v>58.35</v>
+        <f t="shared" ref="B86:B97" si="6">B88+$P$22</f>
+        <v>100.35</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -4590,14 +4827,17 @@
       <c r="M87" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>46.024999999999999</v>
       </c>
       <c r="B88" s="5">
         <f t="shared" si="6"/>
-        <v>107.95</v>
+        <v>93.35</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -4616,14 +4856,17 @@
       <c r="M88" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>46.024999999999999</v>
       </c>
       <c r="B89" s="5">
         <f t="shared" si="6"/>
-        <v>51.35</v>
+        <v>86.35</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -4642,14 +4885,17 @@
       <c r="M89" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>46.024999999999999</v>
       </c>
       <c r="B90" s="5">
         <f t="shared" si="6"/>
-        <v>100.95</v>
+        <v>79.349999999999994</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -4668,14 +4914,17 @@
       <c r="M90" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>46.024999999999999</v>
       </c>
       <c r="B91" s="5">
         <f t="shared" si="6"/>
-        <v>44.35</v>
+        <v>72.349999999999994</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -4694,14 +4943,17 @@
       <c r="M91" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>46.024999999999999</v>
       </c>
       <c r="B92" s="5">
         <f t="shared" si="6"/>
-        <v>93.95</v>
+        <v>65.349999999999994</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -4720,14 +4972,17 @@
       <c r="M92" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>46.024999999999999</v>
       </c>
       <c r="B93" s="5">
         <f t="shared" si="6"/>
-        <v>37.35</v>
+        <v>58.35</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -4746,14 +5001,17 @@
       <c r="M93" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>46.024999999999999</v>
       </c>
       <c r="B94" s="5">
         <f t="shared" si="6"/>
-        <v>86.95</v>
+        <v>51.35</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -4772,14 +5030,17 @@
       <c r="M94" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>46.024999999999999</v>
       </c>
       <c r="B95" s="5">
         <f t="shared" si="6"/>
-        <v>30.35</v>
+        <v>44.35</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -4798,14 +5059,17 @@
       <c r="M95" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>46.024999999999999</v>
       </c>
       <c r="B96" s="5">
         <f t="shared" si="6"/>
-        <v>79.95</v>
+        <v>37.35</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -4824,14 +5088,17 @@
       <c r="M96" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>46.024999999999999</v>
       </c>
       <c r="B97" s="5">
         <f t="shared" si="6"/>
-        <v>23.35</v>
+        <v>30.35</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -4850,14 +5117,17 @@
       <c r="M97" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>46.024999999999999</v>
       </c>
       <c r="B98" s="5">
-        <f>P19</f>
-        <v>72.95</v>
+        <f>B99+$P$22</f>
+        <v>23.35</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -4876,8 +5146,11 @@
       <c r="M98" s="6">
         <v>180</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>46.024999999999999</v>
       </c>
@@ -6739,7 +7012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC65FA7F-DFB4-4BB8-A052-C29856FA8F8E}">
   <dimension ref="A1:AB85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C85"/>
     </sheetView>
   </sheetViews>
@@ -6902,7 +7175,7 @@
         <v>14.375</v>
       </c>
       <c r="C3">
-        <f>C2+$Q$8</f>
+        <f t="shared" ref="C3:C8" si="0">C2+$Q$8</f>
         <v>185.91249999999999</v>
       </c>
       <c r="F3" t="s">
@@ -6963,7 +7236,7 @@
         <v>9.25</v>
       </c>
       <c r="C4">
-        <f>C3+$Q$8</f>
+        <f t="shared" si="0"/>
         <v>183.82499999999999</v>
       </c>
       <c r="F4" t="s">
@@ -7024,7 +7297,7 @@
         <v>14.375</v>
       </c>
       <c r="C5">
-        <f>C4+$Q$8</f>
+        <f t="shared" si="0"/>
         <v>181.73749999999998</v>
       </c>
       <c r="F5" t="s">
@@ -7042,11 +7315,11 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B11" si="0">$B$2</f>
+        <f t="shared" ref="B6" si="1">$B$2</f>
         <v>9.25</v>
       </c>
       <c r="C6">
-        <f>C5+$Q$8</f>
+        <f t="shared" si="0"/>
         <v>179.64999999999998</v>
       </c>
       <c r="F6" t="s">
@@ -7064,11 +7337,11 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B11" si="1">$B$3</f>
+        <f t="shared" ref="B7" si="2">$B$3</f>
         <v>14.375</v>
       </c>
       <c r="C7">
-        <f>C6+$Q$8</f>
+        <f t="shared" si="0"/>
         <v>177.56249999999997</v>
       </c>
       <c r="F7" t="s">
@@ -7092,11 +7365,11 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B11" si="2">$B$2</f>
+        <f t="shared" ref="B8" si="3">$B$2</f>
         <v>9.25</v>
       </c>
       <c r="C8">
-        <f>C7+$Q$8</f>
+        <f t="shared" si="0"/>
         <v>175.47499999999997</v>
       </c>
       <c r="F8" t="s">
@@ -7121,11 +7394,11 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:B11" si="3">$B$3</f>
+        <f t="shared" ref="B9" si="4">$B$3</f>
         <v>14.375</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C11" si="4">C8+$Q$8</f>
+        <f t="shared" ref="C9:C11" si="5">C8+$Q$8</f>
         <v>173.38749999999996</v>
       </c>
       <c r="F9" t="s">
@@ -7137,11 +7410,11 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:B28" si="5">$B$2</f>
+        <f t="shared" ref="B10:B28" si="6">$B$2</f>
         <v>9.25</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>171.29999999999995</v>
       </c>
       <c r="F10" t="s">
@@ -7153,11 +7426,11 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:B29" si="6">$B$3</f>
+        <f t="shared" ref="B11:B29" si="7">$B$3</f>
         <v>14.375</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>169.21249999999995</v>
       </c>
       <c r="F11" t="s">
@@ -7169,11 +7442,11 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.25</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C18" si="7">C11+$Q$8</f>
+        <f t="shared" ref="C12:C15" si="8">C11+$Q$8</f>
         <v>167.12499999999994</v>
       </c>
       <c r="F12" t="s">
@@ -7182,11 +7455,11 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.375</v>
       </c>
       <c r="C13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>165.03749999999994</v>
       </c>
       <c r="F13" t="s">
@@ -7195,11 +7468,11 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.25</v>
       </c>
       <c r="C14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>162.94999999999993</v>
       </c>
       <c r="F14" t="s">
@@ -7208,11 +7481,11 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.375</v>
       </c>
       <c r="C15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>160.86249999999993</v>
       </c>
       <c r="F15" t="s">
@@ -7221,11 +7494,11 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.25</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:C29" si="8">C15+$Q$8</f>
+        <f t="shared" ref="C16:C29" si="9">C15+$Q$8</f>
         <v>158.77499999999992</v>
       </c>
       <c r="F16" t="s">
@@ -7234,11 +7507,11 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.375</v>
       </c>
       <c r="C17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156.68749999999991</v>
       </c>
       <c r="F17" t="s">
@@ -7247,11 +7520,11 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.25</v>
       </c>
       <c r="C18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>154.59999999999991</v>
       </c>
       <c r="F18" t="s">
@@ -7260,11 +7533,11 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.375</v>
       </c>
       <c r="C19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>152.5124999999999</v>
       </c>
       <c r="F19" t="s">
@@ -7273,11 +7546,11 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.25</v>
       </c>
       <c r="C20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>150.4249999999999</v>
       </c>
       <c r="F20" t="s">
@@ -7286,11 +7559,11 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.375</v>
       </c>
       <c r="C21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>148.33749999999989</v>
       </c>
       <c r="F21" t="s">
@@ -7299,11 +7572,11 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.25</v>
       </c>
       <c r="C22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>146.24999999999989</v>
       </c>
       <c r="F22" t="s">
@@ -7312,11 +7585,11 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.375</v>
       </c>
       <c r="C23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>144.16249999999988</v>
       </c>
       <c r="F23" t="s">
@@ -7325,11 +7598,11 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.25</v>
       </c>
       <c r="C24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>142.07499999999987</v>
       </c>
       <c r="F24" t="s">
@@ -7338,11 +7611,11 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.375</v>
       </c>
       <c r="C25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>139.98749999999987</v>
       </c>
       <c r="F25" t="s">
@@ -7351,11 +7624,11 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.25</v>
       </c>
       <c r="C26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>137.89999999999986</v>
       </c>
       <c r="F26" t="s">
@@ -7364,11 +7637,11 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.375</v>
       </c>
       <c r="C27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>135.81249999999986</v>
       </c>
       <c r="F27" t="s">
@@ -7377,11 +7650,11 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.25</v>
       </c>
       <c r="C28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>133.72499999999985</v>
       </c>
       <c r="F28" t="s">
@@ -7390,11 +7663,11 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.375</v>
       </c>
       <c r="C29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>131.63749999999985</v>
       </c>
       <c r="F29" t="s">
@@ -7433,7 +7706,7 @@
         <v>6.2750000000000004</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:C57" si="9">C31+$Q$8</f>
+        <f t="shared" ref="C32:C57" si="10">C31+$Q$8</f>
         <v>183.82499999999999</v>
       </c>
       <c r="F32" t="s">
@@ -7446,7 +7719,7 @@
         <v>11.4</v>
       </c>
       <c r="C33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>181.73749999999998</v>
       </c>
       <c r="F33" t="s">
@@ -7455,11 +7728,11 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f t="shared" ref="B34:B57" si="10">$B$30</f>
+        <f t="shared" ref="B34" si="11">$B$30</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>179.64999999999998</v>
       </c>
       <c r="F34" t="s">
@@ -7468,11 +7741,11 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f t="shared" ref="B35:B57" si="11">$B$31</f>
+        <f t="shared" ref="B35" si="12">$B$31</f>
         <v>11.4</v>
       </c>
       <c r="C35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>177.56249999999997</v>
       </c>
       <c r="F35" t="s">
@@ -7481,11 +7754,11 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f t="shared" ref="B36:B57" si="12">$B$30</f>
+        <f t="shared" ref="B36" si="13">$B$30</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>175.47499999999997</v>
       </c>
       <c r="F36" t="s">
@@ -7494,11 +7767,11 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f t="shared" ref="B37:B57" si="13">$B$31</f>
+        <f t="shared" ref="B37" si="14">$B$31</f>
         <v>11.4</v>
       </c>
       <c r="C37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>173.38749999999996</v>
       </c>
       <c r="F37" t="s">
@@ -7507,11 +7780,11 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f t="shared" ref="B38:B57" si="14">$B$30</f>
+        <f t="shared" ref="B38" si="15">$B$30</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>171.29999999999995</v>
       </c>
       <c r="F38" t="s">
@@ -7520,11 +7793,11 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39">
-        <f t="shared" ref="B39:B57" si="15">$B$31</f>
+        <f t="shared" ref="B39" si="16">$B$31</f>
         <v>11.4</v>
       </c>
       <c r="C39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>169.21249999999995</v>
       </c>
       <c r="F39" t="s">
@@ -7533,11 +7806,11 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40">
-        <f t="shared" ref="B40:B57" si="16">$B$30</f>
+        <f t="shared" ref="B40" si="17">$B$30</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>167.12499999999994</v>
       </c>
       <c r="F40" t="s">
@@ -7546,11 +7819,11 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41">
-        <f t="shared" ref="B41:B57" si="17">$B$31</f>
+        <f t="shared" ref="B41" si="18">$B$31</f>
         <v>11.4</v>
       </c>
       <c r="C41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>165.03749999999994</v>
       </c>
       <c r="F41" t="s">
@@ -7559,11 +7832,11 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42">
-        <f t="shared" ref="B42:B57" si="18">$B$30</f>
+        <f t="shared" ref="B42" si="19">$B$30</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>162.94999999999993</v>
       </c>
       <c r="F42" t="s">
@@ -7572,11 +7845,11 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43">
-        <f t="shared" ref="B43:B57" si="19">$B$31</f>
+        <f t="shared" ref="B43" si="20">$B$31</f>
         <v>11.4</v>
       </c>
       <c r="C43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>160.86249999999993</v>
       </c>
       <c r="F43" t="s">
@@ -7585,11 +7858,11 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44">
-        <f t="shared" ref="B44:B57" si="20">$B$30</f>
+        <f t="shared" ref="B44" si="21">$B$30</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>158.77499999999992</v>
       </c>
       <c r="F44" t="s">
@@ -7598,11 +7871,11 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45">
-        <f t="shared" ref="B45:B57" si="21">$B$31</f>
+        <f t="shared" ref="B45" si="22">$B$31</f>
         <v>11.4</v>
       </c>
       <c r="C45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>156.68749999999991</v>
       </c>
       <c r="F45" t="s">
@@ -7611,11 +7884,11 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46">
-        <f t="shared" ref="B46:B57" si="22">$B$30</f>
+        <f t="shared" ref="B46" si="23">$B$30</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>154.59999999999991</v>
       </c>
       <c r="F46" t="s">
@@ -7624,11 +7897,11 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47">
-        <f t="shared" ref="B47:B57" si="23">$B$31</f>
+        <f t="shared" ref="B47" si="24">$B$31</f>
         <v>11.4</v>
       </c>
       <c r="C47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>152.5124999999999</v>
       </c>
       <c r="F47" t="s">
@@ -7637,11 +7910,11 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48">
-        <f t="shared" ref="B48:B57" si="24">$B$30</f>
+        <f t="shared" ref="B48" si="25">$B$30</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>150.4249999999999</v>
       </c>
       <c r="F48" t="s">
@@ -7650,11 +7923,11 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f t="shared" ref="B49:B57" si="25">$B$31</f>
+        <f t="shared" ref="B49" si="26">$B$31</f>
         <v>11.4</v>
       </c>
       <c r="C49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>148.33749999999989</v>
       </c>
       <c r="F49" t="s">
@@ -7663,11 +7936,11 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50">
-        <f t="shared" ref="B50:B57" si="26">$B$30</f>
+        <f t="shared" ref="B50" si="27">$B$30</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>146.24999999999989</v>
       </c>
       <c r="F50" t="s">
@@ -7676,11 +7949,11 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51">
-        <f t="shared" ref="B51:B57" si="27">$B$31</f>
+        <f t="shared" ref="B51" si="28">$B$31</f>
         <v>11.4</v>
       </c>
       <c r="C51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>144.16249999999988</v>
       </c>
       <c r="F51" t="s">
@@ -7689,11 +7962,11 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52">
-        <f t="shared" ref="B52:B57" si="28">$B$30</f>
+        <f t="shared" ref="B52" si="29">$B$30</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>142.07499999999987</v>
       </c>
       <c r="F52" t="s">
@@ -7702,11 +7975,11 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53">
-        <f t="shared" ref="B53:B57" si="29">$B$31</f>
+        <f t="shared" ref="B53" si="30">$B$31</f>
         <v>11.4</v>
       </c>
       <c r="C53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>139.98749999999987</v>
       </c>
       <c r="F53" t="s">
@@ -7715,11 +7988,11 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54">
-        <f t="shared" ref="B54:B57" si="30">$B$30</f>
+        <f t="shared" ref="B54" si="31">$B$30</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>137.89999999999986</v>
       </c>
       <c r="F54" t="s">
@@ -7728,11 +8001,11 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55">
-        <f t="shared" ref="B55:B57" si="31">$B$31</f>
+        <f t="shared" ref="B55" si="32">$B$31</f>
         <v>11.4</v>
       </c>
       <c r="C55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>135.81249999999986</v>
       </c>
       <c r="F55" t="s">
@@ -7741,11 +8014,11 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56">
-        <f t="shared" ref="B56:B57" si="32">$B$30</f>
+        <f t="shared" ref="B56" si="33">$B$30</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>133.72499999999985</v>
       </c>
       <c r="F56" t="s">
@@ -7754,11 +8027,11 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57">
-        <f t="shared" ref="B57" si="33">$B$31</f>
+        <f t="shared" ref="B57" si="34">$B$31</f>
         <v>11.4</v>
       </c>
       <c r="C57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>131.63749999999985</v>
       </c>
       <c r="F57" t="s">
@@ -7797,7 +8070,7 @@
         <v>6.2750000000000004</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:C61" si="34">C59+$Q$8</f>
+        <f t="shared" ref="C60:C61" si="35">C59+$Q$8</f>
         <v>182.25</v>
       </c>
       <c r="F60" t="s">
@@ -7810,7 +8083,7 @@
         <v>11.4</v>
       </c>
       <c r="C61">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>180.16249999999999</v>
       </c>
       <c r="F61" t="s">
@@ -7819,11 +8092,11 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62">
-        <f t="shared" ref="B62:B85" si="35">$B$58</f>
+        <f t="shared" ref="B62" si="36">$B$58</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C62">
-        <f t="shared" ref="C62:C85" si="36">C61+$Q$8</f>
+        <f t="shared" ref="C62:C85" si="37">C61+$Q$8</f>
         <v>178.07499999999999</v>
       </c>
       <c r="F62" t="s">
@@ -7832,11 +8105,11 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63">
-        <f t="shared" ref="B63:B85" si="37">$B$59</f>
+        <f t="shared" ref="B63" si="38">$B$59</f>
         <v>11.4</v>
       </c>
       <c r="C63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>175.98749999999998</v>
       </c>
       <c r="F63" t="s">
@@ -7845,11 +8118,11 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64">
-        <f t="shared" ref="B64:B85" si="38">$B$58</f>
+        <f t="shared" ref="B64" si="39">$B$58</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>173.89999999999998</v>
       </c>
       <c r="F64" t="s">
@@ -7858,11 +8131,11 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65">
-        <f t="shared" ref="B65:B85" si="39">$B$59</f>
+        <f t="shared" ref="B65" si="40">$B$59</f>
         <v>11.4</v>
       </c>
       <c r="C65">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>171.81249999999997</v>
       </c>
       <c r="F65" t="s">
@@ -7871,11 +8144,11 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66">
-        <f t="shared" ref="B66:B85" si="40">$B$58</f>
+        <f t="shared" ref="B66" si="41">$B$58</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C66">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>169.72499999999997</v>
       </c>
       <c r="F66" t="s">
@@ -7884,11 +8157,11 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67">
-        <f t="shared" ref="B67:B85" si="41">$B$59</f>
+        <f t="shared" ref="B67" si="42">$B$59</f>
         <v>11.4</v>
       </c>
       <c r="C67">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>167.63749999999996</v>
       </c>
       <c r="F67" t="s">
@@ -7897,11 +8170,11 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68">
-        <f t="shared" ref="B68:B85" si="42">$B$58</f>
+        <f t="shared" ref="B68" si="43">$B$58</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C68">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>165.54999999999995</v>
       </c>
       <c r="F68" t="s">
@@ -7910,11 +8183,11 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69">
-        <f t="shared" ref="B69:B85" si="43">$B$59</f>
+        <f t="shared" ref="B69" si="44">$B$59</f>
         <v>11.4</v>
       </c>
       <c r="C69">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>163.46249999999995</v>
       </c>
       <c r="F69" t="s">
@@ -7923,11 +8196,11 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70">
-        <f t="shared" ref="B70:B85" si="44">$B$58</f>
+        <f t="shared" ref="B70" si="45">$B$58</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C70">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>161.37499999999994</v>
       </c>
       <c r="F70" t="s">
@@ -7936,11 +8209,11 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71">
-        <f t="shared" ref="B71:B85" si="45">$B$59</f>
+        <f t="shared" ref="B71" si="46">$B$59</f>
         <v>11.4</v>
       </c>
       <c r="C71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>159.28749999999994</v>
       </c>
       <c r="F71" t="s">
@@ -7949,11 +8222,11 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72">
-        <f t="shared" ref="B72:B85" si="46">$B$58</f>
+        <f t="shared" ref="B72" si="47">$B$58</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C72">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>157.19999999999993</v>
       </c>
       <c r="F72" t="s">
@@ -7962,11 +8235,11 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73">
-        <f t="shared" ref="B73:B85" si="47">$B$59</f>
+        <f t="shared" ref="B73" si="48">$B$59</f>
         <v>11.4</v>
       </c>
       <c r="C73">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>155.11249999999993</v>
       </c>
       <c r="F73" t="s">
@@ -7975,11 +8248,11 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74">
-        <f t="shared" ref="B74:B85" si="48">$B$58</f>
+        <f t="shared" ref="B74" si="49">$B$58</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>153.02499999999992</v>
       </c>
       <c r="F74" t="s">
@@ -7988,11 +8261,11 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75">
-        <f t="shared" ref="B75:B85" si="49">$B$59</f>
+        <f t="shared" ref="B75" si="50">$B$59</f>
         <v>11.4</v>
       </c>
       <c r="C75">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>150.93749999999991</v>
       </c>
       <c r="F75" t="s">
@@ -8001,11 +8274,11 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76">
-        <f t="shared" ref="B76:B85" si="50">$B$58</f>
+        <f t="shared" ref="B76" si="51">$B$58</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C76">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>148.84999999999991</v>
       </c>
       <c r="F76" t="s">
@@ -8014,11 +8287,11 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77">
-        <f t="shared" ref="B77:B85" si="51">$B$59</f>
+        <f t="shared" ref="B77" si="52">$B$59</f>
         <v>11.4</v>
       </c>
       <c r="C77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>146.7624999999999</v>
       </c>
       <c r="F77" t="s">
@@ -8027,11 +8300,11 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78">
-        <f t="shared" ref="B78:B85" si="52">$B$58</f>
+        <f t="shared" ref="B78" si="53">$B$58</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C78">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>144.6749999999999</v>
       </c>
       <c r="F78" t="s">
@@ -8040,11 +8313,11 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79">
-        <f t="shared" ref="B79:B85" si="53">$B$59</f>
+        <f t="shared" ref="B79" si="54">$B$59</f>
         <v>11.4</v>
       </c>
       <c r="C79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>142.58749999999989</v>
       </c>
       <c r="F79" t="s">
@@ -8053,11 +8326,11 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80">
-        <f t="shared" ref="B80:B85" si="54">$B$58</f>
+        <f t="shared" ref="B80" si="55">$B$58</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C80">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>140.49999999999989</v>
       </c>
       <c r="F80" t="s">
@@ -8066,11 +8339,11 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81">
-        <f t="shared" ref="B81:B85" si="55">$B$59</f>
+        <f t="shared" ref="B81" si="56">$B$59</f>
         <v>11.4</v>
       </c>
       <c r="C81">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>138.41249999999988</v>
       </c>
       <c r="F81" t="s">
@@ -8079,11 +8352,11 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82">
-        <f t="shared" ref="B82:B85" si="56">$B$58</f>
+        <f t="shared" ref="B82" si="57">$B$58</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C82">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>136.32499999999987</v>
       </c>
       <c r="F82" t="s">
@@ -8092,11 +8365,11 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83">
-        <f t="shared" ref="B83:B85" si="57">$B$59</f>
+        <f t="shared" ref="B83" si="58">$B$59</f>
         <v>11.4</v>
       </c>
       <c r="C83">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>134.23749999999987</v>
       </c>
       <c r="F83" t="s">
@@ -8105,11 +8378,11 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84">
-        <f t="shared" ref="B84:B85" si="58">$B$58</f>
+        <f t="shared" ref="B84" si="59">$B$58</f>
         <v>6.2750000000000004</v>
       </c>
       <c r="C84">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>132.14999999999986</v>
       </c>
       <c r="F84" t="s">
@@ -8118,11 +8391,11 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85">
-        <f t="shared" ref="B85" si="59">$B$59</f>
+        <f t="shared" ref="B85" si="60">$B$59</f>
         <v>11.4</v>
       </c>
       <c r="C85">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>130.06249999999986</v>
       </c>
       <c r="F85" t="s">

--- a/Documents/Balance Circuit placement.xlsx
+++ b/Documents/Balance Circuit placement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Will\Documents\GitHub\HV_BMS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B806832-25D4-406B-901A-AD4AE8DA4099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFD513A-0132-439D-95B3-8EE6EBC83E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{28CC7CEF-CD1D-4D1E-8837-1C6BE0070208}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="221">
   <si>
     <t>Dy</t>
   </si>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:P8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB012BD8-3966-4A1F-801C-FB2F5C276C59}">
-  <dimension ref="A1:AA99"/>
+  <dimension ref="A1:AK99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25:X41"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,11 +1712,11 @@
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f t="array" ref="A2:A15">O3</f>
-        <v>28.463000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="B2" s="5">
-        <f t="shared" ref="B2:B13" si="0">B3+$P$22</f>
-        <v>103.47499999999999</v>
+        <f t="shared" ref="B2:B12" si="0">B3+$P$22</f>
+        <v>82.300000000000011</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1733,7 +1733,8 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="3">
-        <v>360</v>
+        <f t="array" ref="M2:M15">AA3</f>
+        <v>270</v>
       </c>
       <c r="N2" t="s">
         <v>41</v>
@@ -1780,11 +1781,11 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>28.463000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" si="0"/>
-        <v>96.474999999999994</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1801,16 +1802,16 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N3" t="s">
         <v>42</v>
       </c>
       <c r="O3">
-        <v>28.463000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="P3">
-        <v>12.475</v>
+        <v>12.1</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1843,16 +1844,16 @@
         <v>7</v>
       </c>
       <c r="AA3">
-        <v>360</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>28.463000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
-        <v>89.474999999999994</v>
+        <v>71.5</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1869,7 +1870,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N4" t="s">
         <v>43</v>
@@ -1878,7 +1879,7 @@
         <v>34.774999999999999</v>
       </c>
       <c r="P4">
-        <v>15.382999999999999</v>
+        <v>11.183</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1916,11 +1917,11 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>28.463000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
-        <v>82.474999999999994</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1937,7 +1938,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N5" t="s">
         <v>44</v>
@@ -1946,7 +1947,7 @@
         <v>41.274999999999999</v>
       </c>
       <c r="P5">
-        <v>14.574999999999999</v>
+        <v>10.375</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1984,11 +1985,11 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>28.463000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>75.474999999999994</v>
+        <v>60.699999999999989</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2005,7 +2006,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N6" t="s">
         <v>45</v>
@@ -2014,7 +2015,7 @@
         <v>41.274999999999999</v>
       </c>
       <c r="P6">
-        <v>16.350000000000001</v>
+        <v>12.15</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2052,11 +2053,11 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>28.463000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>68.474999999999994</v>
+        <v>55.29999999999999</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2073,7 +2074,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N7" t="s">
         <v>46</v>
@@ -2082,7 +2083,7 @@
         <v>38.424999999999997</v>
       </c>
       <c r="P7">
-        <v>15.475</v>
+        <v>11.275</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2120,11 +2121,11 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>28.463000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>61.475000000000001</v>
+        <v>49.899999999999991</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2141,16 +2142,16 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N8" t="s">
         <v>47</v>
       </c>
       <c r="O8">
-        <v>33.786999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="P8">
-        <v>12.475</v>
+        <v>11</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -2183,16 +2184,16 @@
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>360</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>28.463000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>54.475000000000001</v>
+        <v>44.499999999999993</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2209,7 +2210,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N9" t="s">
         <v>48</v>
@@ -2218,7 +2219,7 @@
         <v>46.024999999999999</v>
       </c>
       <c r="P9">
-        <v>16.350000000000001</v>
+        <v>12.15</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2256,11 +2257,11 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>28.463000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>47.475000000000001</v>
+        <v>39.099999999999994</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2277,7 +2278,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N10" t="s">
         <v>49</v>
@@ -2285,11 +2286,11 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>28.463000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>40.475000000000001</v>
+        <v>33.699999999999996</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2306,7 +2307,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N11" t="s">
         <v>51</v>
@@ -2317,11 +2318,11 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>28.463000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>33.475000000000001</v>
+        <v>28.299999999999997</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2338,7 +2339,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N12" t="s">
         <v>52</v>
@@ -2385,11 +2386,11 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>28.463000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="B13" s="5">
         <f>B14+$P$22</f>
-        <v>26.475000000000001</v>
+        <v>22.9</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2406,7 +2407,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N13" t="s">
         <v>125</v>
@@ -2453,11 +2454,11 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>28.463000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="B14" s="5">
         <f>B15+$P$22</f>
-        <v>19.475000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2474,7 +2475,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N14" t="s">
         <v>1</v>
@@ -2521,11 +2522,11 @@
     </row>
     <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>28.463000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="B15" s="8">
         <f>P3</f>
-        <v>12.475</v>
+        <v>12.1</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2542,7 +2543,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="9">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N15" t="s">
         <v>53</v>
@@ -2594,7 +2595,7 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" ref="B16:B27" si="1">B17+$P$22</f>
-        <v>106.383</v>
+        <v>81.38300000000001</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2611,6 +2612,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3">
+        <f t="array" ref="M16">AA4</f>
         <v>180</v>
       </c>
       <c r="N16" t="s">
@@ -2656,13 +2658,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>34.774999999999999</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="1"/>
-        <v>99.382999999999996</v>
+        <v>75.983000000000004</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2724,13 +2726,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>34.774999999999999</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="1"/>
-        <v>92.382999999999996</v>
+        <v>70.582999999999998</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2792,13 +2794,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>34.774999999999999</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="1"/>
-        <v>85.382999999999996</v>
+        <v>65.182999999999993</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2860,13 +2862,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>34.774999999999999</v>
       </c>
       <c r="B20" s="5">
         <f t="shared" si="1"/>
-        <v>78.382999999999996</v>
+        <v>59.782999999999987</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2889,13 +2891,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>34.774999999999999</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" si="1"/>
-        <v>71.382999999999996</v>
+        <v>54.382999999999988</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2918,13 +2920,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>34.774999999999999</v>
       </c>
       <c r="B22" s="5">
         <f t="shared" si="1"/>
-        <v>64.382999999999996</v>
+        <v>48.98299999999999</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2950,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>34.774999999999999</v>
       </c>
       <c r="B23" s="5">
         <f t="shared" si="1"/>
-        <v>57.382999999999996</v>
+        <v>43.582999999999991</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2988,13 +2990,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>34.774999999999999</v>
       </c>
       <c r="B24" s="5">
         <f t="shared" si="1"/>
-        <v>50.382999999999996</v>
+        <v>38.182999999999993</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -3017,13 +3019,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>34.774999999999999</v>
       </c>
       <c r="B25" s="5">
         <f t="shared" si="1"/>
-        <v>43.382999999999996</v>
+        <v>32.782999999999994</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -3046,13 +3048,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>34.774999999999999</v>
       </c>
       <c r="B26" s="5">
         <f t="shared" si="1"/>
-        <v>36.382999999999996</v>
+        <v>27.382999999999996</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -3075,13 +3077,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>34.774999999999999</v>
       </c>
       <c r="B27" s="5">
         <f t="shared" si="1"/>
-        <v>29.382999999999999</v>
+        <v>21.982999999999997</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -3104,13 +3106,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>34.774999999999999</v>
       </c>
       <c r="B28" s="5">
         <f>B29+$P$22</f>
-        <v>22.382999999999999</v>
+        <v>16.582999999999998</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -3132,14 +3134,53 @@
       <c r="N28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y28">
+        <v>26.9</v>
+      </c>
+      <c r="Z28">
+        <v>12.1</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ28">
+        <v>7</v>
+      </c>
+      <c r="AK28">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>34.774999999999999</v>
       </c>
       <c r="B29" s="8">
         <f>P4</f>
-        <v>15.382999999999999</v>
+        <v>11.183</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -3161,15 +3202,54 @@
       <c r="N29" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y29">
+        <v>34.774999999999999</v>
+      </c>
+      <c r="Z29">
+        <v>11.183</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ29">
+        <v>6</v>
+      </c>
+      <c r="AK29">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="array" ref="A30:A43">O5</f>
         <v>41.274999999999999</v>
       </c>
       <c r="B30" s="5">
         <f t="shared" ref="B30:B41" si="2">B31+$P$22</f>
-        <v>105.575</v>
+        <v>80.575000000000017</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3186,19 +3266,59 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="3">
+        <f t="array" ref="M30:M43">AA5</f>
         <v>360</v>
       </c>
       <c r="N30" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y30">
+        <v>41.274999999999999</v>
+      </c>
+      <c r="Z30">
+        <v>10.375</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ30">
+        <v>5</v>
+      </c>
+      <c r="AK30">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B31" s="5">
         <f t="shared" si="2"/>
-        <v>98.575000000000003</v>
+        <v>75.175000000000011</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -3220,14 +3340,53 @@
       <c r="N31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y31">
+        <v>41.274999999999999</v>
+      </c>
+      <c r="Z31">
+        <v>12.15</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ31">
+        <v>4</v>
+      </c>
+      <c r="AK31">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B32" s="5">
         <f t="shared" si="2"/>
-        <v>91.575000000000003</v>
+        <v>69.775000000000006</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -3249,14 +3408,53 @@
       <c r="N32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Y32">
+        <v>38.424999999999997</v>
+      </c>
+      <c r="Z32">
+        <v>11.275</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ32">
+        <v>3</v>
+      </c>
+      <c r="AK32">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B33" s="5">
         <f t="shared" si="2"/>
-        <v>84.575000000000003</v>
+        <v>64.375</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -3278,14 +3476,53 @@
       <c r="N33" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Y33">
+        <v>24.8</v>
+      </c>
+      <c r="Z33">
+        <v>11</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B34" s="5">
         <f t="shared" si="2"/>
-        <v>77.575000000000003</v>
+        <v>58.974999999999994</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3307,14 +3544,53 @@
       <c r="N34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Y34">
+        <v>46.024999999999999</v>
+      </c>
+      <c r="Z34">
+        <v>12.15</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B35" s="5">
         <f t="shared" si="2"/>
-        <v>70.575000000000003</v>
+        <v>53.574999999999996</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3337,13 +3613,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B36" s="5">
         <f t="shared" si="2"/>
-        <v>63.575000000000003</v>
+        <v>48.174999999999997</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3366,13 +3642,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B37" s="5">
         <f t="shared" si="2"/>
-        <v>56.575000000000003</v>
+        <v>42.774999999999999</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3395,13 +3671,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B38" s="5">
         <f t="shared" si="2"/>
-        <v>49.575000000000003</v>
+        <v>37.375</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -3424,13 +3700,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B39" s="5">
         <f t="shared" si="2"/>
-        <v>42.575000000000003</v>
+        <v>31.975000000000001</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -3453,13 +3729,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B40" s="5">
         <f t="shared" si="2"/>
-        <v>35.575000000000003</v>
+        <v>26.575000000000003</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -3482,13 +3758,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" si="2"/>
-        <v>28.574999999999999</v>
+        <v>21.175000000000001</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -3511,13 +3787,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B42" s="5">
         <f>B43+$P$22</f>
-        <v>21.574999999999999</v>
+        <v>15.775</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -3540,13 +3816,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>41.274999999999999</v>
       </c>
       <c r="B43" s="8">
         <f>P5</f>
-        <v>14.574999999999999</v>
+        <v>10.375</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -3569,14 +3845,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="array" ref="A44:A57">O6</f>
         <v>41.274999999999999</v>
       </c>
       <c r="B44" s="5">
         <f t="shared" ref="B44:B55" si="3">B45+$P$22</f>
-        <v>107.35</v>
+        <v>82.350000000000009</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3593,19 +3869,20 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="3">
+        <f t="array" ref="M44:M57">AA6</f>
         <v>360</v>
       </c>
       <c r="N44" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B45" s="5">
         <f t="shared" si="3"/>
-        <v>100.35</v>
+        <v>76.95</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -3628,13 +3905,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B46" s="5">
         <f t="shared" si="3"/>
-        <v>93.35</v>
+        <v>71.55</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -3657,13 +3934,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B47" s="5">
         <f t="shared" si="3"/>
-        <v>86.35</v>
+        <v>66.149999999999991</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -3686,13 +3963,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>41.274999999999999</v>
       </c>
       <c r="B48" s="5">
         <f t="shared" si="3"/>
-        <v>79.349999999999994</v>
+        <v>60.749999999999993</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -3721,7 +3998,7 @@
       </c>
       <c r="B49" s="5">
         <f t="shared" si="3"/>
-        <v>72.349999999999994</v>
+        <v>55.349999999999994</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -3750,7 +4027,7 @@
       </c>
       <c r="B50" s="5">
         <f t="shared" si="3"/>
-        <v>65.349999999999994</v>
+        <v>49.949999999999996</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -3779,7 +4056,7 @@
       </c>
       <c r="B51" s="5">
         <f t="shared" si="3"/>
-        <v>58.35</v>
+        <v>44.55</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -3808,7 +4085,7 @@
       </c>
       <c r="B52" s="5">
         <f t="shared" si="3"/>
-        <v>51.35</v>
+        <v>39.15</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -3837,7 +4114,7 @@
       </c>
       <c r="B53" s="5">
         <f t="shared" si="3"/>
-        <v>44.35</v>
+        <v>33.75</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -3866,7 +4143,7 @@
       </c>
       <c r="B54" s="5">
         <f t="shared" si="3"/>
-        <v>37.35</v>
+        <v>28.35</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -3895,7 +4172,7 @@
       </c>
       <c r="B55" s="5">
         <f t="shared" si="3"/>
-        <v>30.35</v>
+        <v>22.950000000000003</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -3924,7 +4201,7 @@
       </c>
       <c r="B56" s="5">
         <f>B57+$P$22</f>
-        <v>23.35</v>
+        <v>17.55</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -3953,7 +4230,7 @@
       </c>
       <c r="B57" s="8">
         <f>P6</f>
-        <v>16.350000000000001</v>
+        <v>12.15</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -3983,7 +4260,7 @@
       </c>
       <c r="B58" s="5">
         <f t="shared" ref="B58:B69" si="4">B59+$P$22</f>
-        <v>106.47499999999999</v>
+        <v>81.475000000000009</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -4000,6 +4277,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="3">
+        <f t="array" ref="M58:M71">AA7</f>
         <v>270</v>
       </c>
       <c r="N58" t="s">
@@ -4012,7 +4290,7 @@
       </c>
       <c r="B59" s="5">
         <f t="shared" si="4"/>
-        <v>99.474999999999994</v>
+        <v>76.075000000000003</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -4041,7 +4319,7 @@
       </c>
       <c r="B60" s="5">
         <f t="shared" si="4"/>
-        <v>92.474999999999994</v>
+        <v>70.674999999999997</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -4070,7 +4348,7 @@
       </c>
       <c r="B61" s="5">
         <f t="shared" si="4"/>
-        <v>85.474999999999994</v>
+        <v>65.274999999999991</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -4099,7 +4377,7 @@
       </c>
       <c r="B62" s="5">
         <f t="shared" si="4"/>
-        <v>78.474999999999994</v>
+        <v>59.874999999999993</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -4128,7 +4406,7 @@
       </c>
       <c r="B63" s="5">
         <f t="shared" si="4"/>
-        <v>71.474999999999994</v>
+        <v>54.474999999999994</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -4157,7 +4435,7 @@
       </c>
       <c r="B64" s="5">
         <f t="shared" si="4"/>
-        <v>64.474999999999994</v>
+        <v>49.074999999999996</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -4186,7 +4464,7 @@
       </c>
       <c r="B65" s="5">
         <f t="shared" si="4"/>
-        <v>57.475000000000001</v>
+        <v>43.674999999999997</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -4215,7 +4493,7 @@
       </c>
       <c r="B66" s="5">
         <f t="shared" si="4"/>
-        <v>50.475000000000001</v>
+        <v>38.274999999999999</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -4244,7 +4522,7 @@
       </c>
       <c r="B67" s="5">
         <f t="shared" si="4"/>
-        <v>43.475000000000001</v>
+        <v>32.875</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -4270,7 +4548,7 @@
       </c>
       <c r="B68" s="5">
         <f t="shared" si="4"/>
-        <v>36.475000000000001</v>
+        <v>27.475000000000001</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -4296,7 +4574,7 @@
       </c>
       <c r="B69" s="5">
         <f t="shared" si="4"/>
-        <v>29.475000000000001</v>
+        <v>22.075000000000003</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -4322,7 +4600,7 @@
       </c>
       <c r="B70" s="5">
         <f>B71+$P$22</f>
-        <v>22.475000000000001</v>
+        <v>16.675000000000001</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -4348,7 +4626,7 @@
       </c>
       <c r="B71" s="8">
         <f>P7</f>
-        <v>15.475</v>
+        <v>11.275</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -4371,11 +4649,11 @@
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f t="array" ref="A72:A85">O8</f>
-        <v>33.786999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="B72" s="5">
         <f t="shared" ref="B72:B83" si="5">B73+$P$22</f>
-        <v>103.47499999999999</v>
+        <v>81.2</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -4392,16 +4670,17 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="3">
-        <v>360</v>
+        <f t="array" ref="M72:M85">AA8</f>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>33.786999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="B73" s="5">
         <f t="shared" si="5"/>
-        <v>96.474999999999994</v>
+        <v>75.8</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -4418,7 +4697,7 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N73" t="s">
         <v>101</v>
@@ -4426,11 +4705,11 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>33.786999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="B74" s="5">
         <f t="shared" si="5"/>
-        <v>89.474999999999994</v>
+        <v>70.399999999999991</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -4447,7 +4726,7 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N74" t="s">
         <v>102</v>
@@ -4455,11 +4734,11 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>33.786999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="B75" s="5">
         <f t="shared" si="5"/>
-        <v>82.474999999999994</v>
+        <v>64.999999999999986</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -4476,7 +4755,7 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N75" t="s">
         <v>103</v>
@@ -4484,11 +4763,11 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>33.786999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="B76" s="5">
         <f t="shared" si="5"/>
-        <v>75.474999999999994</v>
+        <v>59.599999999999987</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -4505,7 +4784,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N76" t="s">
         <v>104</v>
@@ -4513,11 +4792,11 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>33.786999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="B77" s="5">
         <f t="shared" si="5"/>
-        <v>68.474999999999994</v>
+        <v>54.199999999999989</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -4534,7 +4813,7 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N77" t="s">
         <v>105</v>
@@ -4542,11 +4821,11 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>33.786999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="B78" s="5">
         <f t="shared" si="5"/>
-        <v>61.475000000000001</v>
+        <v>48.79999999999999</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -4563,7 +4842,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N78" t="s">
         <v>106</v>
@@ -4571,11 +4850,11 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>33.786999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="B79" s="5">
         <f t="shared" si="5"/>
-        <v>54.475000000000001</v>
+        <v>43.399999999999991</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -4592,7 +4871,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N79" t="s">
         <v>107</v>
@@ -4600,11 +4879,11 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>33.786999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="B80" s="5">
         <f t="shared" si="5"/>
-        <v>47.475000000000001</v>
+        <v>37.999999999999993</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -4621,7 +4900,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N80" t="s">
         <v>108</v>
@@ -4629,11 +4908,11 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>33.786999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="B81" s="5">
         <f t="shared" si="5"/>
-        <v>40.475000000000001</v>
+        <v>32.599999999999994</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -4650,7 +4929,7 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N81" t="s">
         <v>109</v>
@@ -4658,11 +4937,11 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>33.786999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="B82" s="5">
         <f t="shared" si="5"/>
-        <v>33.475000000000001</v>
+        <v>27.199999999999996</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -4679,7 +4958,7 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N82" t="s">
         <v>111</v>
@@ -4687,11 +4966,11 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>33.786999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="B83" s="5">
         <f t="shared" si="5"/>
-        <v>26.475000000000001</v>
+        <v>21.799999999999997</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -4708,7 +4987,7 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N83" t="s">
         <v>112</v>
@@ -4716,11 +4995,11 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>33.786999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="B84" s="5">
         <f>B85+$P$22</f>
-        <v>19.475000000000001</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -4737,7 +5016,7 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="6">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N84" t="s">
         <v>130</v>
@@ -4745,11 +5024,11 @@
     </row>
     <row r="85" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
-        <v>33.786999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="B85" s="8">
         <f>P8</f>
-        <v>12.475</v>
+        <v>11</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -4766,7 +5045,7 @@
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="M85" s="9">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="N85" t="s">
         <v>14</v>
@@ -4779,7 +5058,7 @@
       </c>
       <c r="B86" s="5">
         <f>B87+$P$22</f>
-        <v>107.35</v>
+        <v>82.350000000000009</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -4796,6 +5075,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="3">
+        <f t="array" ref="M86:M99">AA9</f>
         <v>180</v>
       </c>
       <c r="N86" t="s">
@@ -4807,8 +5087,8 @@
         <v>46.024999999999999</v>
       </c>
       <c r="B87" s="5">
-        <f t="shared" ref="B86:B97" si="6">B88+$P$22</f>
-        <v>100.35</v>
+        <f t="shared" ref="B87:B97" si="6">B88+$P$22</f>
+        <v>76.95</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -4837,7 +5117,7 @@
       </c>
       <c r="B88" s="5">
         <f t="shared" si="6"/>
-        <v>93.35</v>
+        <v>71.55</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -4866,7 +5146,7 @@
       </c>
       <c r="B89" s="5">
         <f t="shared" si="6"/>
-        <v>86.35</v>
+        <v>66.149999999999991</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -4895,7 +5175,7 @@
       </c>
       <c r="B90" s="5">
         <f t="shared" si="6"/>
-        <v>79.349999999999994</v>
+        <v>60.749999999999993</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -4924,7 +5204,7 @@
       </c>
       <c r="B91" s="5">
         <f t="shared" si="6"/>
-        <v>72.349999999999994</v>
+        <v>55.349999999999994</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -4953,7 +5233,7 @@
       </c>
       <c r="B92" s="5">
         <f t="shared" si="6"/>
-        <v>65.349999999999994</v>
+        <v>49.949999999999996</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -4982,7 +5262,7 @@
       </c>
       <c r="B93" s="5">
         <f t="shared" si="6"/>
-        <v>58.35</v>
+        <v>44.55</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -5011,7 +5291,7 @@
       </c>
       <c r="B94" s="5">
         <f t="shared" si="6"/>
-        <v>51.35</v>
+        <v>39.15</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -5040,7 +5320,7 @@
       </c>
       <c r="B95" s="5">
         <f t="shared" si="6"/>
-        <v>44.35</v>
+        <v>33.75</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -5069,7 +5349,7 @@
       </c>
       <c r="B96" s="5">
         <f t="shared" si="6"/>
-        <v>37.35</v>
+        <v>28.35</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -5098,7 +5378,7 @@
       </c>
       <c r="B97" s="5">
         <f t="shared" si="6"/>
-        <v>30.35</v>
+        <v>22.950000000000003</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -5127,7 +5407,7 @@
       </c>
       <c r="B98" s="5">
         <f>B99+$P$22</f>
-        <v>23.35</v>
+        <v>17.55</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -5156,7 +5436,7 @@
       </c>
       <c r="B99" s="8">
         <f>P9</f>
-        <v>16.350000000000001</v>
+        <v>12.15</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
